--- a/data/hotels_by_city/Houston/Houston_shard_45.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_45.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="471">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56226-d1486005-Reviews-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Best-Western-Plus-Manvel-Inn-Suites.h2803627.Hotel-Information?chkin=7%2F12%2F2018&amp;chkout=7%2F13%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1530203167667&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=56375f30-bb5d-4a19-a529-643ffd73854c&amp;mctc=9&amp;exp_dp=95.4&amp;exp_ts=1530203168256&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,1289 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r583397991-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>56226</t>
+  </si>
+  <si>
+    <t>1486005</t>
+  </si>
+  <si>
+    <t>583397991</t>
+  </si>
+  <si>
+    <t>05/28/2018</t>
+  </si>
+  <si>
+    <t>Family Visit</t>
+  </si>
+  <si>
+    <t>Family Gathering near Rosharon, TX. Gathering with Family and Friends to honor a niece who had graduated from a senior Texas college, with Honors. An afternoon affair with plenty of Food and pleasant company !</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r583022634-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>583022634</t>
+  </si>
+  <si>
+    <t>05/27/2018</t>
+  </si>
+  <si>
+    <t>Clean and Priced Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Considering it was a holiday weekend, the price of this hotel was very reasonable. It is further away from most restaurants and activities. The room was very nice, clean, and the complimentary breakfast was good. Front desk people were pleasant and friendly. We would have given them five stars, but there was a small leak above the windowsill that dripped from time to time when the heavy storm passed through during the evening of our stay. I’m sure the staff wasn’t aware of it, or it would have been repaired. Very pleased with our stay here and would definitely stay again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r581820987-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>581820987</t>
+  </si>
+  <si>
+    <t>05/21/2018</t>
+  </si>
+  <si>
+    <t>Nice stay.</t>
+  </si>
+  <si>
+    <t>Stayed one night before a cruise. We got there after 10 and check in was easy. Very friendly lady at the front desk. Room was spacious and clean.  We had breakfast there the next morning. Bacon, sausage, eggs, toast, biscuits and gravy, cereal,  fruit even a make your own waffle maker. Not bad for 'free'. Will definitely stay there next year before our cruise.</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r536079457-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>536079457</t>
+  </si>
+  <si>
+    <t>10/24/2017</t>
+  </si>
+  <si>
+    <t>Great Place!</t>
+  </si>
+  <si>
+    <t>I know the hotel was very full with people still dealing with the hurricane.  Our stay was only for a night, but I would stay here again.  Great location and a couple of smaller restaurants nearby.  Breakfast was great and they kept bringing out hot food considering the amount of people.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r524987206-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>524987206</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel</t>
+  </si>
+  <si>
+    <t>Staff was great, hotel was great. I like my bed a bit softer, was pretty firm. Would stay here again. Breakfast I had scrambled eggs, potatoes, cheese danish, yogurt and OJ!! Lots of people staying there cause of Harvey, either helping to clean up or because of flooded homes.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r511503740-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>511503740</t>
+  </si>
+  <si>
+    <t>08/11/2017</t>
+  </si>
+  <si>
+    <t>The plus is for plus bugs and burns!!!!  STAY AWAY!!!</t>
+  </si>
+  <si>
+    <t>I stayed at this location for 10 minutes.  I was given a room that had a dead roach on the floor, A huge dead spider in the bathtub and a piece of a vacuum next to the bed.  I went to the front desk and was given another room.  I walked in to find a huge cigarette burn hole in the comforter.  I immediately left.  Stay away!!!!  I went from paying $93.56 for a room to $247.47 at a clean hotel.  I called Best Western customer support and they are doing nothing at all for me other than a sorry.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>BWPlus_Manvel, Front Office Manager at Best Western Plus Manvel Inn &amp; Suites, responded to this reviewResponded August 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 14, 2017</t>
+  </si>
+  <si>
+    <t>I stayed at this location for 10 minutes.  I was given a room that had a dead roach on the floor, A huge dead spider in the bathtub and a piece of a vacuum next to the bed.  I went to the front desk and was given another room.  I walked in to find a huge cigarette burn hole in the comforter.  I immediately left.  Stay away!!!!  I went from paying $93.56 for a room to $247.47 at a clean hotel.  I called Best Western customer support and they are doing nothing at all for me other than a sorry.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r504035203-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>504035203</t>
+  </si>
+  <si>
+    <t>07/20/2017</t>
+  </si>
+  <si>
+    <t>Great hotel, a little off the beaten track!</t>
+  </si>
+  <si>
+    <t>A very nice hotel and we scored a room with 2 king beds!  Don't think we've ever had one before.  Breakfast room was well equipped, even had 2 waffle makers.  There wasn't much around the hotel but the Cajun/creole restaurant across the road served great food!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>BWPlus_Manvel, Front Office Manager at Best Western Plus Manvel Inn &amp; Suites, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>A very nice hotel and we scored a room with 2 king beds!  Don't think we've ever had one before.  Breakfast room was well equipped, even had 2 waffle makers.  There wasn't much around the hotel but the Cajun/creole restaurant across the road served great food!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r498691668-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>498691668</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>Not the typical  BW plus</t>
+  </si>
+  <si>
+    <t>I like BW+ for business travel &amp; this location doesn't stand up to the standard.  It's old, smells of mold, and the service is sub par.  The breakfast was lacking any healthy sugar free items.  The coffee was out of a single serve machine.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>BWPlus_Manvel, Front Office Manager at Best Western Plus Manvel Inn &amp; Suites, responded to this reviewResponded July 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2017</t>
+  </si>
+  <si>
+    <t>I like BW+ for business travel &amp; this location doesn't stand up to the standard.  It's old, smells of mold, and the service is sub par.  The breakfast was lacking any healthy sugar free items.  The coffee was out of a single serve machine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r498235272-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>498235272</t>
+  </si>
+  <si>
+    <t>07/03/2017</t>
+  </si>
+  <si>
+    <t>Cold cold!</t>
+  </si>
+  <si>
+    <t>No towels! Asked for more and they were out! No towels in swim area, water was ice cold, no one got to swim and that's the reason we chose this place! Just saddened by the value and we got TWO rooms. Not going to consider bw again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>BestWesternHotels, Corporate at Best Western Plus Manvel Inn &amp; Suites, responded to this reviewResponded July 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 7, 2017</t>
+  </si>
+  <si>
+    <t>No towels! Asked for more and they were out! No towels in swim area, water was ice cold, no one got to swim and that's the reason we chose this place! Just saddened by the value and we got TWO rooms. Not going to consider bw again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r474455711-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>474455711</t>
+  </si>
+  <si>
+    <t>04/10/2017</t>
+  </si>
+  <si>
+    <t>My stay in Manvel, TX</t>
+  </si>
+  <si>
+    <t>Great hotel for the price. Staff is friendly. Location had some construction but overall a good experience. The breakfast items were good and fresh, and plentiful. The rooms are spacious and the beds are comfortable. I have been to this location several times and each time I've been greeted with a smile from the staff.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r473094362-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>473094362</t>
+  </si>
+  <si>
+    <t>04/06/2017</t>
+  </si>
+  <si>
+    <t>Relaxing time in Manvel Texas....</t>
+  </si>
+  <si>
+    <t>We were passing through and decided to stay. The town has only 5000 people and were very friendly. We were only 10 minutes away from Pearland which had everything. We did eat at a restaurant Manvel Seafood and Grill near the hotel which was very good and extreme busy..we love staying at Best Westerns with the rewards points.MoreShow less</t>
+  </si>
+  <si>
+    <t>BWPlus_Manvel, Manager at Best Western Plus Manvel Inn &amp; Suites, responded to this reviewResponded April 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2017</t>
+  </si>
+  <si>
+    <t>We were passing through and decided to stay. The town has only 5000 people and were very friendly. We were only 10 minutes away from Pearland which had everything. We did eat at a restaurant Manvel Seafood and Grill near the hotel which was very good and extreme busy..we love staying at Best Westerns with the rewards points.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r467721426-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>467721426</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Overall Good</t>
+  </si>
+  <si>
+    <t>My husband and I stayed one night. The Mexican restaurant located in front of the hotel has affordable good food. The blower on the jacuzzi was broken on our stay, but was assured it was in working order. They did accommodate us with a jacuzzi suite which was really nice. Breakfast was good and the room was clean.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>My husband and I stayed one night. The Mexican restaurant located in front of the hotel has affordable good food. The blower on the jacuzzi was broken on our stay, but was assured it was in working order. They did accommodate us with a jacuzzi suite which was really nice. Breakfast was good and the room was clean.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r443625963-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>443625963</t>
+  </si>
+  <si>
+    <t>12/11/2016</t>
+  </si>
+  <si>
+    <t>Thank you for the hospitality!!</t>
+  </si>
+  <si>
+    <t>We stayed here while in town for a family visit. Our visitation was for a specific time on Saturday morning. I didn't think about the fact that our visit would end just after checkout. We would have had to either check out before we left, early that morning or ask for a later checkout. The staff was so gracious as to allow us to complete our visit and come back for our things and freshen up before we made our trip back home. We are very thankful for the staff and management for this offer.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r428777111-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>428777111</t>
+  </si>
+  <si>
+    <t>10/17/2016</t>
+  </si>
+  <si>
+    <t>Good Experience</t>
+  </si>
+  <si>
+    <t>Stayed one night when we needed to be near Manvel. Check-in/out staff was friendly. Room was very spacious, clean and quiet. Bed was a little firm for my taste. The shower water didn't get real hot. Breakfast was better than average for this type of hotel.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r420463123-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>420463123</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>Spotlessly clean</t>
+  </si>
+  <si>
+    <t>Reasonably priced, friendly staff, great continental breakfast.  The room was large and spotless.  Free high speed wifi included.  The landscaping was beautiful.  The indoor pool/exercise area was well-equipped and clean.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r392757970-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>392757970</t>
+  </si>
+  <si>
+    <t>07/14/2016</t>
+  </si>
+  <si>
+    <t>Best hotel ever!!</t>
+  </si>
+  <si>
+    <t>TJ &amp; his staff make it a great experience from start to finish. Really nice building &amp; amenities. We spend about 2 weeks a year in Texas &amp; wouldn't stay anywhere else. If you're in the area, stay here---you'll be glad you did!!</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r386857686-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>386857686</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Managers Blow You Off</t>
+  </si>
+  <si>
+    <t>If you like managers who tell you one thing and do not follow through, beds as hard as a rock, and tubs that take 45 minutes to fill, then this is the hotel for you. And do not expect them to honor your rewards points because they won't. Worst experience ever. We are looking for another hotel chain that actually believes in comfort and honors their rewards program.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r386858542-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>386858542</t>
+  </si>
+  <si>
+    <t>Great hotel gone bad</t>
+  </si>
+  <si>
+    <t>Bad experience at check in, a couple of issues. Smoke terrible in what is supposed to be a non-smoking facility.  Bed and linens uncomfortable.  Noise from street traffic bad.  Although the check out time was 11:00 am and the do not disturb sign on the door, the maid showed up at 9:30 am knocking on the door until I answered and she wanted to know when I was leaving.  Needless to say she woke me up after a long night trying to sleep with the constant disturbance of cigarette smoking causing difficult breathing problem.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r368152972-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>368152972</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Judge tucker</t>
+  </si>
+  <si>
+    <t>Very nice hotel clean make sure everything works in the room when you get it especially the iron and the microwave, nice pool. Staff is very nice and helpful. They go out of their way to make sure that you have a good day. By far the best hotel in the area. If you have to stay in Manville this is the place to stay</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r368031838-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>368031838</t>
+  </si>
+  <si>
+    <t>04/26/2016</t>
+  </si>
+  <si>
+    <t>You have the time, they have a nice room</t>
+  </si>
+  <si>
+    <t>I have been to the Manvel location before but not in a good  while, returning was a very pleasant experience as it seems the old higher prices have receded a bit, most likely due to a lack of demand from oil service company workers and construction activities. That is not all, I like the comfortable fairly large room with a very nice bath and nice linens, a pool indoors and a workout room. I complement the staff, new faces and very friendly bunch and two of them could share their name tag. Was very comfortable at all times, breakfast was a standard fare but well presented. The elevator has it's own character as well, I felt like I was in a Star-Trek movie upon movement up or down. Nice having ice machines on every floor, good fridge in room WITH a freezer (gotta have the freezer) keeps my ice solid when on road for a few days. Comfortable bed with large TV, think I caught the Spurs/Grizzlies game that day. I also liked the variety of plants in the landscaping. Stop in and be comfortable, nice place to stay if you are heading into Houston without having to be in the big city, it is just a short drive to the big H. Highway 6 is right there and you can head to Galveston or Houston or south to Alvin quite easily.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have been to the Manvel location before but not in a good  while, returning was a very pleasant experience as it seems the old higher prices have receded a bit, most likely due to a lack of demand from oil service company workers and construction activities. That is not all, I like the comfortable fairly large room with a very nice bath and nice linens, a pool indoors and a workout room. I complement the staff, new faces and very friendly bunch and two of them could share their name tag. Was very comfortable at all times, breakfast was a standard fare but well presented. The elevator has it's own character as well, I felt like I was in a Star-Trek movie upon movement up or down. Nice having ice machines on every floor, good fridge in room WITH a freezer (gotta have the freezer) keeps my ice solid when on road for a few days. Comfortable bed with large TV, think I caught the Spurs/Grizzlies game that day. I also liked the variety of plants in the landscaping. Stop in and be comfortable, nice place to stay if you are heading into Houston without having to be in the big city, it is just a short drive to the big H. Highway 6 is right there and you can head to Galveston or Houston or south to Alvin quite easily.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r366977721-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>366977721</t>
+  </si>
+  <si>
+    <t>04/24/2016</t>
+  </si>
+  <si>
+    <t>Could be cleaner...</t>
+  </si>
+  <si>
+    <t>Room was spacious with mini-kitchen. Everything worked though in rough shape. Breakfast was plentiful. Pool looked great (not heated). Towels situation was strange. Towels were picked up from room but weren't replaced until several hours later. Halls and stairways needed to be vacuumed! And the parking lot was trashy with broken bottles and empty cans. This started as a very nice motel but is suffering from neglect. Too bad.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r363323216-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>363323216</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Very Clean Hotel !!!</t>
+  </si>
+  <si>
+    <t>Spent one night before a cruise. Is about 40 miles for Galveston. Hotel was great, desk clerk was great, breakfast was above average with lots of choices. Only drawback and it was not the hotels fault was that when we were headed to Galveston down Hwy 6 to IH 45 they actually shut down Hwy 6 for a local stock show and rodeo parade. Poor planning if you ask me, and when I call the local PD to complain the lady was a real ***** lets just say her customer services was lacking. Other than that it was a great place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r362045163-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>362045163</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Very nice place</t>
+  </si>
+  <si>
+    <t>This place was very clean.  We thought the staff was nice.  It is a bit hard to drive out against traffic but nice place. Tried only one nearby eatery and it was mediocre.  Would stay there again. Travel on the back roads if you are leaving during rush hour.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r361861420-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>361861420</t>
+  </si>
+  <si>
+    <t>04/05/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solid and as expected </t>
+  </si>
+  <si>
+    <t>We stayed two nights while visiting family. The room was clean well appointed and as we expected from a Best Western property. The free breakfast included eggs, sausage, waffles cereal, yogurt and juices and coffee. It was most satisfying. The check in person was quick and efficient. It's location is on a major highway and easily accessed. Several restaurants in the area include hamburgers, seafood, Chinese and Mexican. We enjoyed our stay and will return.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r357713255-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>357713255</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>You get what you pay for</t>
+  </si>
+  <si>
+    <t>Okay, I get it that the hotel is near large open areas that attract bugs, but when they are there the next day, ew.  I tooks pics of my bathroom floor with dirt streaks that weren't washed during the 48 hours we visited, nor were the dead bugs vacuumed up in the stair way.Other than the cleanliness, the place was okay.  The evening shift woman at the front desk was very friendly and helpful.  She was the highlight of our stay.Breakfast is offered each day, but both mornings, the coffee jug was empty and I had to ask for it to be refilled.  Other food items were empty or low as well and it seemed like an inconvenience when I asked the staff for refills.  I believe if you're going to offer something, then do it well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Okay, I get it that the hotel is near large open areas that attract bugs, but when they are there the next day, ew.  I tooks pics of my bathroom floor with dirt streaks that weren't washed during the 48 hours we visited, nor were the dead bugs vacuumed up in the stair way.Other than the cleanliness, the place was okay.  The evening shift woman at the front desk was very friendly and helpful.  She was the highlight of our stay.Breakfast is offered each day, but both mornings, the coffee jug was empty and I had to ask for it to be refilled.  Other food items were empty or low as well and it seemed like an inconvenience when I asked the staff for refills.  I believe if you're going to offer something, then do it well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r349045287-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>349045287</t>
+  </si>
+  <si>
+    <t>02/18/2016</t>
+  </si>
+  <si>
+    <t>Hotel was good but highway was noisy</t>
+  </si>
+  <si>
+    <t>Stayed one night and was put on the end near the highway.  I could hear it but did not keep me from sleeping.  Otherwise room was comfortable and had everything I needed.  Room had kitchenette and TV worked good.  Shower was warm but not really hot.  Toilet was loose but worked ok.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r345943611-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>345943611</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>BIRTHDAY WEEKEND</t>
+  </si>
+  <si>
+    <t>Went to this Best Western because of the indoor pool. We were celebrating my daughter's 18th birthday, so I booked 2 rooms. Found out they do not heat the indoor pool so was not usable. Hot tub was extremely chlorinated but nice temperature. Our room only had 6 pillows. I did not think anything about it, but was charged $75. When I called today they said they were 3 pillows short and charged me.  I didn't even know there should have been 4 pillows in a room. I've called twice today to resolve and still waiting for a credit. Someone either below us or next door smoked, because cigarette smoke filtered into the room. I told front desk, they said all the air vents are connected. She supposedly was calling that room that first evening. I didn't even bother Saturday morning.  It is supposed to be a 100% smoke free hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>Went to this Best Western because of the indoor pool. We were celebrating my daughter's 18th birthday, so I booked 2 rooms. Found out they do not heat the indoor pool so was not usable. Hot tub was extremely chlorinated but nice temperature. Our room only had 6 pillows. I did not think anything about it, but was charged $75. When I called today they said they were 3 pillows short and charged me.  I didn't even know there should have been 4 pillows in a room. I've called twice today to resolve and still waiting for a credit. Someone either below us or next door smoked, because cigarette smoke filtered into the room. I told front desk, they said all the air vents are connected. She supposedly was calling that room that first evening. I didn't even bother Saturday morning.  It is supposed to be a 100% smoke free hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r342744935-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>342744935</t>
+  </si>
+  <si>
+    <t>01/24/2016</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Loved you Wheel Chair Accesible room with the Roll In Shower. Very accessible for wheel chair and non wheel chair. Most people only focus disability as "Wheelchair" and it was nice to see this hotel focused on both disability issues. Towel rack was low enough for wheelchair and for people with a disability. I have Muscular Dystrophy and things above my shoulders are extremely difficult for me to reach. It was nice having a room that fit my needs as well as wheelchair needs. Very beautiful decor also! Great job!</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r337299960-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>337299960</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>It was OK</t>
+  </si>
+  <si>
+    <t>We moved to this location when our other hotel didn't live up to our expectations, so we  were really hoping this was going to be better.  The front desk was pleasant, and checking in was quick.  When we got to our rooms, I noticed that there was what appeared to be toothpaste splattered on the back of the bathroom door and on the lower wall.  This made me uneasy, because it wasn't a small amount, it covered a third of the door and about a foot of the wall.  We went ahead and dropped off our luggage.We were on our way to NASA, so I stopped off at the desk to tell them about the door so it could be cleaned.  When we got back the door was cleaned, but the wall was still a mess, and I was too tired and hungry to complain again.The kids went down to the indoor pool after dinner.  The pool was an acceptable size, but the water was a bit too cool, and the hot tub was closer to a lukewarm tub.The breakfast was very good.  Well stocked, fresh, and hot.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>We moved to this location when our other hotel didn't live up to our expectations, so we  were really hoping this was going to be better.  The front desk was pleasant, and checking in was quick.  When we got to our rooms, I noticed that there was what appeared to be toothpaste splattered on the back of the bathroom door and on the lower wall.  This made me uneasy, because it wasn't a small amount, it covered a third of the door and about a foot of the wall.  We went ahead and dropped off our luggage.We were on our way to NASA, so I stopped off at the desk to tell them about the door so it could be cleaned.  When we got back the door was cleaned, but the wall was still a mess, and I was too tired and hungry to complain again.The kids went down to the indoor pool after dinner.  The pool was an acceptable size, but the water was a bit too cool, and the hot tub was closer to a lukewarm tub.The breakfast was very good.  Well stocked, fresh, and hot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r335948867-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>335948867</t>
+  </si>
+  <si>
+    <t>12/30/2015</t>
+  </si>
+  <si>
+    <t>Blown away!</t>
+  </si>
+  <si>
+    <t>stayed Christmas 2015, 3 days. We had the King Bed room on bottom floor. The lobby was a good indicator of the quality there. Walked in room and was blown away at the beauty of the room. It was like a second honeymoon to us. We're not rich but we thought we were here! We will be back and want the same room. We took plenty of pictures of the woodwork moldings and hallways. We will be remolding soon and want to duplicate this look, especially the lobby.Only complaint I have is the ceiling fan was for show as well as the globe lights.  I really wanted to turn the fan on instead of air conditioner and utilize a ceiling light, not tables lamps. Therefore I couldn't see a lot of things. Great television stations.MoreShow less</t>
+  </si>
+  <si>
+    <t>stayed Christmas 2015, 3 days. We had the King Bed room on bottom floor. The lobby was a good indicator of the quality there. Walked in room and was blown away at the beauty of the room. It was like a second honeymoon to us. We're not rich but we thought we were here! We will be back and want the same room. We took plenty of pictures of the woodwork moldings and hallways. We will be remolding soon and want to duplicate this look, especially the lobby.Only complaint I have is the ceiling fan was for show as well as the globe lights.  I really wanted to turn the fan on instead of air conditioner and utilize a ceiling light, not tables lamps. Therefore I couldn't see a lot of things. Great television stations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r320285460-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>320285460</t>
+  </si>
+  <si>
+    <t>10/19/2015</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>I've stayed here twice on pleasure. Comfortable bed, good staff and a good hot breakfast(eggs, sausage and biscuits and gravy). I had an issue using my point(my bad), and Tina at the front desk was great in resolving the issue.</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r317741476-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>317741476</t>
+  </si>
+  <si>
+    <t>10/11/2015</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Very nice room for an older property. It was showing it's age in places but was very clean, furnishings updated and the bed very comfortable. All of the staff we encountered during our 6 night stay were very friendly and helpful. The lobby area was always in order and very clean as was the pool and other common areas. Breakfast was average and offered the usual items. Wi Fi worked well. This property is located on a busy road but we never had any issues with car/truck noise. There are not a lot of places to eat close but many choices within a few miles. It only takes about 30 minutes to get to most of the attractions in Houston and less than an hour to Galveston.We felt we really got more than our money's worth at this Bestwestern; very economical without giving up a lot.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Very nice room for an older property. It was showing it's age in places but was very clean, furnishings updated and the bed very comfortable. All of the staff we encountered during our 6 night stay were very friendly and helpful. The lobby area was always in order and very clean as was the pool and other common areas. Breakfast was average and offered the usual items. Wi Fi worked well. This property is located on a busy road but we never had any issues with car/truck noise. There are not a lot of places to eat close but many choices within a few miles. It only takes about 30 minutes to get to most of the attractions in Houston and less than an hour to Galveston.We felt we really got more than our money's worth at this Bestwestern; very economical without giving up a lot.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r315509769-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>315509769</t>
+  </si>
+  <si>
+    <t>10/01/2015</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>I was very impressed with this room....I have been to several and this was the best one yet of them all.... I think the others should model from this one.....The rooms and hotel was so nice and clean...I started to extend my trip just to stay and relax at hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r309421237-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>309421237</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>Dont stay consider other hotel brands</t>
+  </si>
+  <si>
+    <t>The first experience of the hotel seemed acceptable, however this was short lived.  First off, the hallway of the hotel smelled really bad.  This smell not only permeated into my room but it was mixed with the horrible smell that my room had.  Secondly, the phone in my room did not work.  I contacted the front desk who sent a staff member up to work on the issue.  This staff member was in my room all day and into the evening making the repair, leaving me without any privacy during this time.  Due to this issue and the staff member being in my room until 9 central I was not able to rest or relax from a hard day.  Having a phone and a clean room free from odors is a basic requirement that I expect to receive when I pay to stay at a hotel.  I contacted Best Western customer service on Tuesday 9/8/2015 and spoke to Jesus.  I explained my dissatisfaction with my stay and he opened a file on my issue  He explained that a representative from the hotel would contact me within 48 hours.  I still have not received a call.       This hotel is a poor representation of the Best Western name and as a paying customer I will always consider other hotel brands before I stay at another Best Western.MoreShow less</t>
+  </si>
+  <si>
+    <t>The first experience of the hotel seemed acceptable, however this was short lived.  First off, the hallway of the hotel smelled really bad.  This smell not only permeated into my room but it was mixed with the horrible smell that my room had.  Secondly, the phone in my room did not work.  I contacted the front desk who sent a staff member up to work on the issue.  This staff member was in my room all day and into the evening making the repair, leaving me without any privacy during this time.  Due to this issue and the staff member being in my room until 9 central I was not able to rest or relax from a hard day.  Having a phone and a clean room free from odors is a basic requirement that I expect to receive when I pay to stay at a hotel.  I contacted Best Western customer service on Tuesday 9/8/2015 and spoke to Jesus.  I explained my dissatisfaction with my stay and he opened a file on my issue  He explained that a representative from the hotel would contact me within 48 hours.  I still have not received a call.       This hotel is a poor representation of the Best Western name and as a paying customer I will always consider other hotel brands before I stay at another Best Western.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r307937046-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>307937046</t>
+  </si>
+  <si>
+    <t>09/07/2015</t>
+  </si>
+  <si>
+    <t>Worth the drive to Alvin for a better hotel</t>
+  </si>
+  <si>
+    <t>Room was clean and beds ok. The hall had a musty smell but clean. Breakfast was good. We were visiting someone in Alvin but drove to Manvel because of the better hotel they offered. It was worth the drive.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r303929089-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>303929089</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>Great Hotel Staff</t>
+  </si>
+  <si>
+    <t>Very Friendly and welcoming, Hotel very well maintained and rooms were really nice and clean... I glad we choose this hotel even though was a little away from Houston university where we were dropping our daughter. Thank you for the warmness.... S R C</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r276564085-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>276564085</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>Bed bugs</t>
+  </si>
+  <si>
+    <t>Stayed 5/23/15. Staff was nice, room &amp; common areas were clean but kept warm.  Room had a musky smell probably due to being a high humidity area and not being kept cool.  The a/c worked well when turned on but the smell stayed. The worst part of the stay was waking up and finding bed bugs on the sheets. Breakfast was convenient but not well stocked. Was a good visit minus the room smell and bed bugs.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r267626679-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>267626679</t>
+  </si>
+  <si>
+    <t>04/23/2015</t>
+  </si>
+  <si>
+    <t>Sparkling Clean and Very Accommodating</t>
+  </si>
+  <si>
+    <t>We stayed here for a couple of weeks while waiting for our home. It was impeccably clean compared to other Best Westerns we've stayed in and the pool and business center were amenities we used and appreciated. Even though it is a bit out of the way, it's still pretty close to Pearland and more affordable than several hotels right in town. It only takes about 7 minutes to skip up the road to the busiest part of Pearland so if you want a nice, clean place without all the noise and pricey rates, this is a worthwhile place.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r267264309-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>267264309</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>A plus for this BW Plus</t>
+  </si>
+  <si>
+    <t>Very comfortable, good location, reasonable rates for a Plus property, computer moves pricing based on local demand history but this period was not a big week for hotel rooms, hence my liking the reasonable pricing. Linens really good, bed very comfy, quiet room even with busy Hwy. 6 right near front of property. very clean, good food variety for breakfast. You in the area, be sure to stop and stay at this one, management is friendly and concerned about your satisfaction!</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r259338935-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>259338935</t>
+  </si>
+  <si>
+    <t>03/13/2015</t>
+  </si>
+  <si>
+    <t>Nice Best Western</t>
+  </si>
+  <si>
+    <t>Staying here on business for an extended time. Hotel is right next to Hwy. 6 so the traffic noise can get loud during peak times, but as far as the property itself, no complaints. The Manager TJ and his wife are great folks and ready to help out in any way they can. Rooms are clean and the bed is comfortable. AC/Heater works good and during this trip the weather has us using both at times, hot one day and freezing cold the next. The bathroom is a bit small, but not a deal killer, breakfast is the norm. One thing I really like is the fact you can actually open the window fully and get fresh air in when you want it. It's close to Pearland, Alvin and Sugarland, and also a short hop onto Hwy. 288. Easy access to shopping and dining. Beware of the traffic on 6, they drive like it's a NASCAR race. All in all a really nice place though, and I'll stay here again and would recommend to friends.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Staying here on business for an extended time. Hotel is right next to Hwy. 6 so the traffic noise can get loud during peak times, but as far as the property itself, no complaints. The Manager TJ and his wife are great folks and ready to help out in any way they can. Rooms are clean and the bed is comfortable. AC/Heater works good and during this trip the weather has us using both at times, hot one day and freezing cold the next. The bathroom is a bit small, but not a deal killer, breakfast is the norm. One thing I really like is the fact you can actually open the window fully and get fresh air in when you want it. It's close to Pearland, Alvin and Sugarland, and also a short hop onto Hwy. 288. Easy access to shopping and dining. Beware of the traffic on 6, they drive like it's a NASCAR race. All in all a really nice place though, and I'll stay here again and would recommend to friends.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r250286681-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>250286681</t>
+  </si>
+  <si>
+    <t>01/20/2015</t>
+  </si>
+  <si>
+    <t>Very nice, quiet place to stay</t>
+  </si>
+  <si>
+    <t>Really nice rooms with coffee maker and mini fridge. Indoor pool &amp; spa were clean and not crowded. Breakfast would have been excellent except the hot foods were only barely warm. The gravy for the biscuits was hot but the scrambled eggs, sausage, biscuits were only barely warm but still very tasty. Staff was very friendly and professional.</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r250122326-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>250122326</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>Best Western Manvel</t>
+  </si>
+  <si>
+    <t>We saw this hotel last year after we stayed in a different hotel.  This hotel is right around the corner from the high school which is where our meet was held.  I was slightly leery of staying in a Best Western because I have had a few bad experiences with the chain years ago.  The two king beds per room made it easier to try your hotel again.  The experience this time erased all doubts I had about staying in the Best Western chain.  Great service and the rooms had plenty of room for four people per room without being cramped.  We had a issue with a missing remote for the tv and the front desk replaced it immediately.  Breakfast was better than just a continental breakfast with hot scrambled eggs, sausage, biscuits and gravy on top of the rolls and muffins.  Good job Best Western!MoreShow less</t>
+  </si>
+  <si>
+    <t>We saw this hotel last year after we stayed in a different hotel.  This hotel is right around the corner from the high school which is where our meet was held.  I was slightly leery of staying in a Best Western because I have had a few bad experiences with the chain years ago.  The two king beds per room made it easier to try your hotel again.  The experience this time erased all doubts I had about staying in the Best Western chain.  Great service and the rooms had plenty of room for four people per room without being cramped.  We had a issue with a missing remote for the tv and the front desk replaced it immediately.  Breakfast was better than just a continental breakfast with hot scrambled eggs, sausage, biscuits and gravy on top of the rolls and muffins.  Good job Best Western!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r242632684-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>242632684</t>
+  </si>
+  <si>
+    <t>12/02/2014</t>
+  </si>
+  <si>
+    <t>Good for a family stay - But just OK breakfast</t>
+  </si>
+  <si>
+    <t>Our family chose this hotel based on its location to Galveston and Houston. It is in a good location and easy to find. But the breakfast, was just OK.PROS: The rooms are very roomy. We have a family of 4, 2 adults and 2 teens, and did not feel cramped. The room came with two Queen beds. It did have a somewhat smaller flat panel TV, but it worked just fine. The microwave and small refrigerator functioned as expected as well.Location is convenient. We had a planned trip to several sites within the Galveston area. The hotel is about 45 minutes from Galveston and 35 minutes to the south area of Houston. And for coffee drinkers such as myself, there is a Starbucks 10 minutes away in Pearland.CONS: Well, I know the breakfast is free, but I felt it just wasn't prepared with the interest of satisfying the guests. The sausage was cold, even though it was sitting in a slow cooker. The gravy was somewhat thick and cool. The 2% milk was more like cream.I did report this to the front desk, and they said it would get addressed. However the following morning the breakfast was prepared the same. Found that other guests shared the same experience.  Summary: It is a decent hotel, in a decent location. It is economical and well kept. It is worth considering if you find yourself in the Houston/Manvel area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Our family chose this hotel based on its location to Galveston and Houston. It is in a good location and easy to find. But the breakfast, was just OK.PROS: The rooms are very roomy. We have a family of 4, 2 adults and 2 teens, and did not feel cramped. The room came with two Queen beds. It did have a somewhat smaller flat panel TV, but it worked just fine. The microwave and small refrigerator functioned as expected as well.Location is convenient. We had a planned trip to several sites within the Galveston area. The hotel is about 45 minutes from Galveston and 35 minutes to the south area of Houston. And for coffee drinkers such as myself, there is a Starbucks 10 minutes away in Pearland.CONS: Well, I know the breakfast is free, but I felt it just wasn't prepared with the interest of satisfying the guests. The sausage was cold, even though it was sitting in a slow cooker. The gravy was somewhat thick and cool. The 2% milk was more like cream.I did report this to the front desk, and they said it would get addressed. However the following morning the breakfast was prepared the same. Found that other guests shared the same experience.  Summary: It is a decent hotel, in a decent location. It is economical and well kept. It is worth considering if you find yourself in the Houston/Manvel area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r234237494-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>234237494</t>
+  </si>
+  <si>
+    <t>10/13/2014</t>
+  </si>
+  <si>
+    <t>Hotels for youth group</t>
+  </si>
+  <si>
+    <t>The hotel is very flexible for a youth group.  We needed to leave by 7am so they set up breakfast 45 minutes early so we could eat. The indoor pool was clean, hasn't been in the past, and the King rooms are very comfortable allowing for several to share a bed with luggage.  They also have a few rooms with full kitchens which makes it fun to stay in and cook.  Make sure you bring all your own pots, pans and dishes, they do not supply them.  We saved about $200 one night eating in. Their are several good restaurants near the hotel including burgers, Mexican and fish.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r233220510-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>233220510</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Overnight in Manvel</t>
+  </si>
+  <si>
+    <t>I hate Houston traffic day or night. After my business in Houston I needed to leave early and head back to Brownsville. To avoid the Houston traffic, I looked for a hotel outside of Houston. I was surprised to find a Best Western in Manvel, of all places. But it turned out to be perfect. Got on highway 6 to Sugarland on hopped onto highway 59 with no problem. The hotel seems to be new and the room was bigger than expected. The bed was very comfy. Breakfast was a bit disappointing in that the eggs and sausage were cold. The warmer may not have been turned on. But overall, great place to stay if you want to get out of Houston quick heading south.MoreShow less</t>
+  </si>
+  <si>
+    <t>I hate Houston traffic day or night. After my business in Houston I needed to leave early and head back to Brownsville. To avoid the Houston traffic, I looked for a hotel outside of Houston. I was surprised to find a Best Western in Manvel, of all places. But it turned out to be perfect. Got on highway 6 to Sugarland on hopped onto highway 59 with no problem. The hotel seems to be new and the room was bigger than expected. The bed was very comfy. Breakfast was a bit disappointing in that the eggs and sausage were cold. The warmer may not have been turned on. But overall, great place to stay if you want to get out of Houston quick heading south.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r227833116-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>227833116</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>Excellent hotel and a great bargain</t>
+  </si>
+  <si>
+    <t>Friendly staff, great complimentary breakfast, well-equipped gym, clean indoor pool and whirlpool.  The room was immaculate.  Easy commute from Houston and excellent dining locations nearby.  I would suggest trying out Manvel Seafood Restaurant.  There is a nearby Dollar Store and everything is within walking distance of the hotel.  This was my fifth visit to this particular hotel and I have never had anything but a superior experience.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r221484628-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>221484628</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t>Nice weekend out in the boonies.</t>
+  </si>
+  <si>
+    <t>We chose this hotel because of proximity to Houston and Galveston and other attractions, and to get away from the Houston traffic.  Great gem of a hotel, quite small and manageable but the rooms were very spacious and the staff did an excellent job preparing.   Maybe not the Ritz Carlton, but definitely a fine hotel for the price we paid for it.   Staff was available for ALL our needs, including pool towels.  And we really enjoyed the pool and spa.  We just about had it to ourselves since the hotel wasn't too big.  And very convenient to good restaurants, shopping places and places of worship.  Not bad for being 20 minutes away from downtown Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>We chose this hotel because of proximity to Houston and Galveston and other attractions, and to get away from the Houston traffic.  Great gem of a hotel, quite small and manageable but the rooms were very spacious and the staff did an excellent job preparing.   Maybe not the Ritz Carlton, but definitely a fine hotel for the price we paid for it.   Staff was available for ALL our needs, including pool towels.  And we really enjoyed the pool and spa.  We just about had it to ourselves since the hotel wasn't too big.  And very convenient to good restaurants, shopping places and places of worship.  Not bad for being 20 minutes away from downtown Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r220993239-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>220993239</t>
+  </si>
+  <si>
+    <t>08/10/2014</t>
+  </si>
+  <si>
+    <t>Save money, have nice room and go to Houston/Galveston.</t>
+  </si>
+  <si>
+    <t>We chose a room with two kings for our young adult sons. Really nice. Close enough to Houston &amp; Galveston to save some serious money for our family vacation.  Continental breakfast had hot &amp; cold foods as well as waffles, juice &amp; milk.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r213001506-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>213001506</t>
+  </si>
+  <si>
+    <t>06/30/2014</t>
+  </si>
+  <si>
+    <t>Weekly Stay</t>
+  </si>
+  <si>
+    <t>Excellent Kitchenette Room with Free Breakfast included. Property has indoor swimming pool and great fitness center. Staff are friendly and go out of their way for guest comforts. Weekly Rates are good value for money.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r208979516-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>208979516</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>Great management, poor staff!!!</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for 2 nights, management (Tj and Nathalie) were great, answered all my questions. Breakfast was very good. Nathalie kept eggs and sausages fresh and warm, a nice touch for a guest who doesn't want to go out to breakfast. Evening staff was horrible, Lisa did not seem friendly or even appreciative of guests, every time I came to the counter she dragged herself up as if I was a bother to her. She was not presentable, her hair was messy, and make up was as if she had just come from a club. Definitely not what you wish to see when walking into a hotel. She was obnoxious, and loud with the maintenance man at the desk! Completely unacceptable. Service rating would have been a zero if not for the great costumer service of Nathalie and Tj. They are a wonderful example of a great management team. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel for 2 nights, management (Tj and Nathalie) were great, answered all my questions. Breakfast was very good. Nathalie kept eggs and sausages fresh and warm, a nice touch for a guest who doesn't want to go out to breakfast. Evening staff was horrible, Lisa did not seem friendly or even appreciative of guests, every time I came to the counter she dragged herself up as if I was a bother to her. She was not presentable, her hair was messy, and make up was as if she had just come from a club. Definitely not what you wish to see when walking into a hotel. She was obnoxious, and loud with the maintenance man at the desk! Completely unacceptable. Service rating would have been a zero if not for the great costumer service of Nathalie and Tj. They are a wonderful example of a great management team. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r202577111-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>202577111</t>
+  </si>
+  <si>
+    <t>04/24/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel,except the reception lady!!!</t>
+  </si>
+  <si>
+    <t>Once again I stayed at this hotel for 3 days like every year.The room was clean,breakfast was excellent as always.The morning staff was really rude,her attitude was not friendly at all.(Natalia) I think that was her name.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r196201000-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>196201000</t>
+  </si>
+  <si>
+    <t>03/04/2014</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>I checked in at almost midnight. Night staff was very friendly. Morning staff was not friendly but she was efficient. Rooms were bug and nice. Ceiling fan did not work, though. There was a nail hole in a wall, some missinh paint, and a pencil drawing/mark on one of the walls. None of this distracted from the overall feel of the room. Check out was at 11am but the cleaning staff was eager to get in before then. Overall, it was a good place to stay and I would definitely stay again.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r193394194-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>193394194</t>
+  </si>
+  <si>
+    <t>02/07/2014</t>
+  </si>
+  <si>
+    <t>Great stay for travel needs in Houston</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here on vacation and enjoyed the experience. The indoor pool was a highlight (especially the hot tub in the chilly part of February). Room was very clean and well arranged, no smoke or foul smells. Easy access to wifi, plenty of hot water, and many kitchen amenities for extended stays. The morning breakfast was good, clean and a typical selection of continental goods, although it was not as grand as some reviews made it sound. Staff was friendly and helped on the few things we asked about.We would stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r189571737-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>189571737</t>
+  </si>
+  <si>
+    <t>01/03/2014</t>
+  </si>
+  <si>
+    <t>quick trip to Pearland</t>
+  </si>
+  <si>
+    <t>the room was HUGE with the 2 beds and there were ceiling fans too!   we enjoyed the hotel and it was very clean and the staff was very kind ... would stay there again!  the breakfast area was clean and the breakfast food was tasty.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r182525130-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>182525130</t>
+  </si>
+  <si>
+    <t>10/26/2013</t>
+  </si>
+  <si>
+    <t>Best Western - Manvel, TX</t>
+  </si>
+  <si>
+    <t>Clean, bright and well cared for. Small town, friendly people. Quite nice and very accommodating. We enjoy staying here several times a year. This hotel is located very convenient to any event in Houston, Pearland, Alvin, Angleton and all towns around yet it is in a lower traffic area. Quiet at night, restaurants next door on both sides. It is very clean, breakfast is well stocked and the people here and who stay here are very friendly. It is a pleasure to stay in this hotel.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r182183549-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>182183549</t>
+  </si>
+  <si>
+    <t>10/23/2013</t>
+  </si>
+  <si>
+    <t>Can't beat comfort</t>
+  </si>
+  <si>
+    <t>This is one of the best hotels I've stay at in some time. Peaceful &amp; relaxing. Close at hand are the Houston area amenities as well as a short drive to the coast. Local eating establishments bring a flare for down home foods.  Thank you Best Western in finding a great location to meet my needs.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r178232274-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>178232274</t>
+  </si>
+  <si>
+    <t>09/22/2013</t>
+  </si>
+  <si>
+    <t>manvel inn</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel several times. It is a little out of the way but the value you get for your money is great. The hot tub and pool are a little small but are always operational and clean. The lobby area and exterior are clean and the rooms are super clean. The hot breakfast is good although I do wish they offered a few more healthier items such as fruit. Overall this hotel provides an excellent value for your money</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r173888514-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>173888514</t>
+  </si>
+  <si>
+    <t>08/24/2013</t>
+  </si>
+  <si>
+    <t>Welcome Days at HBU</t>
+  </si>
+  <si>
+    <t>My daughter recently moved into the dorms at Houston Baptist University. We came down during the Summer for Freshmen orientation and I stayed at Best Western in Manvel, TX. It was a beautiful stay. Very clean, employees were very friendly. This stay was due to moving her into the dorms and after the first excellent stay I decided to stay here again. Told some of the staff that they have a very nice hotel and I'd be staying here alot more over the next 5 years while my daughter is attending school in Houston.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r173171883-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>173171883</t>
+  </si>
+  <si>
+    <t>08/20/2013</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel Aug 16,17, and 18 2013. I'll have to give a 3.5 on a 5 scale. Rooms were clean and quite (we had a King Suite). Amenities were OK. Standard shampoo/conditioner etc. Coffee pot was a one cupper and they must not want anyone to drink more than one cup. A couple of small issues with the room (nothing major) thus the i/2 point reduction. The pool and hot tub gained the one point reduction. Chlorine was very, very strong and didn't appear to be as clear as it should have been.The hot tub had a suds like substance on the edges and didn't appear to be as clean as needed. This was not a deal breaker as I can bypass this with no problem,Complementary breakfast was really good. Scrambled eggs, link sausage, waffles, cereal, milk, juice, and several coffees. Overall a 3.5 may seem a bit week but had the pool area been better it would have gained at minimum a 4.Would I stay there again... You bet, with no problemMoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel Aug 16,17, and 18 2013. I'll have to give a 3.5 on a 5 scale. Rooms were clean and quite (we had a King Suite). Amenities were OK. Standard shampoo/conditioner etc. Coffee pot was a one cupper and they must not want anyone to drink more than one cup. A couple of small issues with the room (nothing major) thus the i/2 point reduction. The pool and hot tub gained the one point reduction. Chlorine was very, very strong and didn't appear to be as clear as it should have been.The hot tub had a suds like substance on the edges and didn't appear to be as clean as needed. This was not a deal breaker as I can bypass this with no problem,Complementary breakfast was really good. Scrambled eggs, link sausage, waffles, cereal, milk, juice, and several coffees. Overall a 3.5 may seem a bit week but had the pool area been better it would have gained at minimum a 4.Would I stay there again... You bet, with no problemMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r172906368-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>172906368</t>
+  </si>
+  <si>
+    <t>08/18/2013</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>This lovely hotel located in the tiny town of Manvel is a hidden treasure. The price is affordable. The staff is helpful and pride themselves on service. The handicap rooms are spacious, clean, and the walk in shower is one of the finest we have had the pleasure to encounter. Breakfast is fresh, hot and with many items to enjoy. This small town is close to the freeway and only a short drive to Houston. Treat yourself to this excellent experience.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r169837249-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>169837249</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>convenient for visiting my family</t>
+  </si>
+  <si>
+    <t>I visit family that has no room for me to stay with them. This hotel is convenient and has easy access. Can check the internet for work purposes at night when back at hotel. It is slow, but at least it was up every time I needed it. Rooms were clean and refreshed each day with clean towels, etc. Will stay here next time I go visit family in this area of the state.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r168498523-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>168498523</t>
+  </si>
+  <si>
+    <t>07/21/2013</t>
+  </si>
+  <si>
+    <t>Good Place for Business &amp; Tourist in South Houston Area</t>
+  </si>
+  <si>
+    <t>Great Location for business and tourist activities in the south and southeast Houston to Galveston area.  Being on Route 6 the hotel is located out of the heavy traffic corridors into Houston and offers other less traffic routes to the Space Center and Galveston.  Recommend paying the little extra money for a king suite if you are staying more than one night.  The suite is very big and comfortable.  It can sleep 4 with the sofa bed.  Indoor pool and gym are good.  Daily breakfast has eggs and sausage besides the usual carbs for a hotel of this class.  Worth the money.  Had a very good stay.   Room prices for this class hotel are very good compared to others in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Great Location for business and tourist activities in the south and southeast Houston to Galveston area.  Being on Route 6 the hotel is located out of the heavy traffic corridors into Houston and offers other less traffic routes to the Space Center and Galveston.  Recommend paying the little extra money for a king suite if you are staying more than one night.  The suite is very big and comfortable.  It can sleep 4 with the sofa bed.  Indoor pool and gym are good.  Daily breakfast has eggs and sausage besides the usual carbs for a hotel of this class.  Worth the money.  Had a very good stay.   Room prices for this class hotel are very good compared to others in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r166975429-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>166975429</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>On arrival the Manager was the most dour unsmiling person we have run across in the US, even the staff were unsmiling and while the rooms were clean and quiet, overall we felt unwelcome.Cleaners did not replace coffee each day which created some issues for the caffeine addicts.Won't bother staying any more Best Westerns</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r157211308-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>157211308</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>Excellent Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a good hotel &amp; was a pleasant experience for us.  The free breakfast &amp; friendly staff is what we expect all the times.  This is what keep me coming back to this chain of  hotel.   The free Wifi, 2 king sized bed &amp; the beds were very comfortable.  </t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r155338074-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>155338074</t>
+  </si>
+  <si>
+    <t>03/22/2013</t>
+  </si>
+  <si>
+    <t>"Comfortable Stay"</t>
+  </si>
+  <si>
+    <t>Stayed for four nights while on a get-a-way vacation trip. It is located with-in reasonable driving distance to both Houston and Galveston. The room we had was "very clean", big and roomy, high ceilings /ceiling fan , along with frig. / microwave,  We were there in March, used the heater and it was very quiet. The king bed was comfy and provided a good nights sleep after being out and about most of the day. The staff we dealt with were very nice, friendly &amp; helpful.The continental breakfast was fresh and above par for that type of breakfast, good way to start the day.The motel is located in a clean/ safe area.Did not try the close by Tex-Mex rest., but did have a good lunch / beer at the "Burger Barn" just down the road.It was a very good value and would stay there again if in the area.From a Retired coupleMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Stayed for four nights while on a get-a-way vacation trip. It is located with-in reasonable driving distance to both Houston and Galveston. The room we had was "very clean", big and roomy, high ceilings /ceiling fan , along with frig. / microwave,  We were there in March, used the heater and it was very quiet. The king bed was comfy and provided a good nights sleep after being out and about most of the day. The staff we dealt with were very nice, friendly &amp; helpful.The continental breakfast was fresh and above par for that type of breakfast, good way to start the day.The motel is located in a clean/ safe area.Did not try the close by Tex-Mex rest., but did have a good lunch / beer at the "Burger Barn" just down the road.It was a very good value and would stay there again if in the area.From a Retired coupleMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r153948642-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>153948642</t>
+  </si>
+  <si>
+    <t>03/07/2013</t>
+  </si>
+  <si>
+    <t>Horrible staff n would never stay again</t>
+  </si>
+  <si>
+    <t>The staff was awful. My room was covered in bees they kept coming in my room everyday the management would not give me another rm they didnt have one like mine available and wanted give me a smaller room wouldnt upgrade me even though i paid for two weeks i also had birds in my stove vent. I should have stayed outside it would have been better than my stay. Also my neighbors up stairs woke my kids up every night being loud n when i called owners every night they did nothing so if u are a familyb looking to stay here i advise to keep looking the.rates r to high for the crap u have to put up with.MoreShow less</t>
+  </si>
+  <si>
+    <t>The staff was awful. My room was covered in bees they kept coming in my room everyday the management would not give me another rm they didnt have one like mine available and wanted give me a smaller room wouldnt upgrade me even though i paid for two weeks i also had birds in my stove vent. I should have stayed outside it would have been better than my stay. Also my neighbors up stairs woke my kids up every night being loud n when i called owners every night they did nothing so if u are a familyb looking to stay here i advise to keep looking the.rates r to high for the crap u have to put up with.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r134561816-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>134561816</t>
+  </si>
+  <si>
+    <t>07/16/2012</t>
+  </si>
+  <si>
+    <t>Clean &amp; new, but mis-managed and uncaring.</t>
+  </si>
+  <si>
+    <t>II would not recommedn this hotel to a friend because the management is very lacking in meeting the needs of the groups of people staying there. They complained that our kids were tracking water across the floors to the desk to get swim towels, but would not put the towels IN the pool area so that would not happen. Also, they would not allow us to use the breakfast area in the evening so that a whole group of at least 45 people in town for a funeral could get together in one room. WE were ALL (18 families) staying at this hotel 2-3 nights each. They wanted us to pay $167 extra to use the room to meet in, and it wasn't until we stayed in the area next to the desk for several hours and it was bothering them that they allowed us to move to the room. By the way, we left the breakfast room much cleaner than we found it.
+The rooms were very clean, fresh, and new looking, but they would not just place 4 towels in our room daily as we asked. They made us go down daily to the desk to get them, even though we had 4 adults staying in the room. Also, we had to use the computer to write an obituary and other funeral business, and there was never a trash can in the computer room, so people had put...II would not recommedn this hotel to a friend because the management is very lacking in meeting the needs of the groups of people staying there. They complained that our kids were tracking water across the floors to the desk to get swim towels, but would not put the towels IN the pool area so that would not happen. Also, they would not allow us to use the breakfast area in the evening so that a whole group of at least 45 people in town for a funeral could get together in one room. WE were ALL (18 families) staying at this hotel 2-3 nights each. They wanted us to pay $167 extra to use the room to meet in, and it wasn't until we stayed in the area next to the desk for several hours and it was bothering them that they allowed us to move to the room. By the way, we left the breakfast room much cleaner than we found it.The rooms were very clean, fresh, and new looking, but they would not just place 4 towels in our room daily as we asked. They made us go down daily to the desk to get them, even though we had 4 adults staying in the room. Also, we had to use the computer to write an obituary and other funeral business, and there was never a trash can in the computer room, so people had put dirty kleenex and other trash on the desk and floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>II would not recommedn this hotel to a friend because the management is very lacking in meeting the needs of the groups of people staying there. They complained that our kids were tracking water across the floors to the desk to get swim towels, but would not put the towels IN the pool area so that would not happen. Also, they would not allow us to use the breakfast area in the evening so that a whole group of at least 45 people in town for a funeral could get together in one room. WE were ALL (18 families) staying at this hotel 2-3 nights each. They wanted us to pay $167 extra to use the room to meet in, and it wasn't until we stayed in the area next to the desk for several hours and it was bothering them that they allowed us to move to the room. By the way, we left the breakfast room much cleaner than we found it.
+The rooms were very clean, fresh, and new looking, but they would not just place 4 towels in our room daily as we asked. They made us go down daily to the desk to get them, even though we had 4 adults staying in the room. Also, we had to use the computer to write an obituary and other funeral business, and there was never a trash can in the computer room, so people had put...II would not recommedn this hotel to a friend because the management is very lacking in meeting the needs of the groups of people staying there. They complained that our kids were tracking water across the floors to the desk to get swim towels, but would not put the towels IN the pool area so that would not happen. Also, they would not allow us to use the breakfast area in the evening so that a whole group of at least 45 people in town for a funeral could get together in one room. WE were ALL (18 families) staying at this hotel 2-3 nights each. They wanted us to pay $167 extra to use the room to meet in, and it wasn't until we stayed in the area next to the desk for several hours and it was bothering them that they allowed us to move to the room. By the way, we left the breakfast room much cleaner than we found it.The rooms were very clean, fresh, and new looking, but they would not just place 4 towels in our room daily as we asked. They made us go down daily to the desk to get them, even though we had 4 adults staying in the room. Also, we had to use the computer to write an obituary and other funeral business, and there was never a trash can in the computer room, so people had put dirty kleenex and other trash on the desk and floor.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r126069043-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>126069043</t>
+  </si>
+  <si>
+    <t>03/13/2012</t>
+  </si>
+  <si>
+    <t>great place to stay</t>
+  </si>
+  <si>
+    <t>we stayed the night of march-2-2012, clean and tastefully furnished, seems like brand new hotel, right of the highway but quiet. We had dinner in alvin tx at Joe's Bq, food was great there.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r121132372-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>121132372</t>
+  </si>
+  <si>
+    <t>11/28/2011</t>
+  </si>
+  <si>
+    <t>A Good Place to Stay</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the Best Western Plus Manvel Inn &amp; Suites on 11/23/11 and 11/2411.  It was very clean and the rooms smelled good.  The room we stayed in had a desk &amp; chair, microwave, refrigerator and plenty of seating.  Great price!!</t>
+  </si>
+  <si>
+    <t>November 2011</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1824,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1856,4560 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>64</v>
+      </c>
+      <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s">
+        <v>70</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>71</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>95</v>
+      </c>
+      <c r="X8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>103</v>
+      </c>
+      <c r="O9" t="s">
+        <v>72</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>104</v>
+      </c>
+      <c r="X9" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>94</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="n">
+        <v>3</v>
+      </c>
+      <c r="S10" t="n">
+        <v>3</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>112</v>
+      </c>
+      <c r="X10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>117</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>120</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>120</v>
+      </c>
+      <c r="O12" t="s">
+        <v>65</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>126</v>
+      </c>
+      <c r="X12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>129</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>130</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" t="s">
+        <v>133</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>134</v>
+      </c>
+      <c r="O13" t="s">
+        <v>65</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>126</v>
+      </c>
+      <c r="X13" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>137</v>
+      </c>
+      <c r="J14" t="s">
+        <v>138</v>
+      </c>
+      <c r="K14" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" t="s">
+        <v>140</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>141</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>143</v>
+      </c>
+      <c r="J15" t="s">
+        <v>144</v>
+      </c>
+      <c r="K15" t="s">
+        <v>145</v>
+      </c>
+      <c r="L15" t="s">
+        <v>146</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>147</v>
+      </c>
+      <c r="O15" t="s">
+        <v>65</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>148</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>149</v>
+      </c>
+      <c r="J16" t="s">
+        <v>150</v>
+      </c>
+      <c r="K16" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" t="s">
+        <v>152</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>153</v>
+      </c>
+      <c r="O16" t="s">
+        <v>154</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>161</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J18" t="s">
+        <v>163</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>166</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>4</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>2</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>167</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>168</v>
+      </c>
+      <c r="J19" t="s">
+        <v>163</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>166</v>
+      </c>
+      <c r="O19" t="s">
+        <v>79</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>3</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" t="s">
+        <v>173</v>
+      </c>
+      <c r="K20" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" t="s">
+        <v>175</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>176</v>
+      </c>
+      <c r="O20" t="s">
+        <v>154</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>178</v>
+      </c>
+      <c r="J21" t="s">
+        <v>179</v>
+      </c>
+      <c r="K21" t="s">
+        <v>180</v>
+      </c>
+      <c r="L21" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>176</v>
+      </c>
+      <c r="O21" t="s">
+        <v>72</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" t="s">
+        <v>186</v>
+      </c>
+      <c r="L22" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>176</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>189</v>
+      </c>
+      <c r="J23" t="s">
+        <v>190</v>
+      </c>
+      <c r="K23" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" t="s">
+        <v>192</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>176</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>194</v>
+      </c>
+      <c r="J24" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" t="s">
+        <v>196</v>
+      </c>
+      <c r="L24" t="s">
+        <v>197</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>198</v>
+      </c>
+      <c r="O24" t="s">
+        <v>72</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>200</v>
+      </c>
+      <c r="J25" t="s">
+        <v>201</v>
+      </c>
+      <c r="K25" t="s">
+        <v>202</v>
+      </c>
+      <c r="L25" t="s">
+        <v>203</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>176</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>204</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>205</v>
+      </c>
+      <c r="J26" t="s">
+        <v>206</v>
+      </c>
+      <c r="K26" t="s">
+        <v>207</v>
+      </c>
+      <c r="L26" t="s">
+        <v>208</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>198</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>210</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>211</v>
+      </c>
+      <c r="J27" t="s">
+        <v>212</v>
+      </c>
+      <c r="K27" t="s">
+        <v>213</v>
+      </c>
+      <c r="L27" t="s">
+        <v>214</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>215</v>
+      </c>
+      <c r="O27" t="s">
+        <v>154</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="n">
+        <v>4</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>215</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>2</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>222</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>223</v>
+      </c>
+      <c r="J29" t="s">
+        <v>224</v>
+      </c>
+      <c r="K29" t="s">
+        <v>225</v>
+      </c>
+      <c r="L29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>227</v>
+      </c>
+      <c r="O29" t="s">
+        <v>65</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>233</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>235</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>236</v>
+      </c>
+      <c r="J31" t="s">
+        <v>237</v>
+      </c>
+      <c r="K31" t="s">
+        <v>238</v>
+      </c>
+      <c r="L31" t="s">
+        <v>239</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>233</v>
+      </c>
+      <c r="O31" t="s">
+        <v>65</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>241</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>242</v>
+      </c>
+      <c r="J32" t="s">
+        <v>243</v>
+      </c>
+      <c r="K32" t="s">
+        <v>244</v>
+      </c>
+      <c r="L32" t="s">
+        <v>245</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>246</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>247</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>248</v>
+      </c>
+      <c r="J33" t="s">
+        <v>249</v>
+      </c>
+      <c r="K33" t="s">
+        <v>250</v>
+      </c>
+      <c r="L33" t="s">
+        <v>251</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>252</v>
+      </c>
+      <c r="O33" t="s">
+        <v>65</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>254</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>255</v>
+      </c>
+      <c r="J34" t="s">
+        <v>256</v>
+      </c>
+      <c r="K34" t="s">
+        <v>257</v>
+      </c>
+      <c r="L34" t="s">
+        <v>258</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>252</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>259</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>260</v>
+      </c>
+      <c r="J35" t="s">
+        <v>261</v>
+      </c>
+      <c r="K35" t="s">
+        <v>262</v>
+      </c>
+      <c r="L35" t="s">
+        <v>263</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>252</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>2</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>265</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>266</v>
+      </c>
+      <c r="J36" t="s">
+        <v>267</v>
+      </c>
+      <c r="K36" t="s">
+        <v>268</v>
+      </c>
+      <c r="L36" t="s">
+        <v>269</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>252</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>270</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>271</v>
+      </c>
+      <c r="J37" t="s">
+        <v>272</v>
+      </c>
+      <c r="K37" t="s">
+        <v>273</v>
+      </c>
+      <c r="L37" t="s">
+        <v>274</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>275</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>276</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>277</v>
+      </c>
+      <c r="J38" t="s">
+        <v>278</v>
+      </c>
+      <c r="K38" t="s">
+        <v>279</v>
+      </c>
+      <c r="L38" t="s">
+        <v>280</v>
+      </c>
+      <c r="M38" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>281</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>282</v>
+      </c>
+      <c r="J39" t="s">
+        <v>283</v>
+      </c>
+      <c r="K39" t="s">
+        <v>284</v>
+      </c>
+      <c r="L39" t="s">
+        <v>285</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>286</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>287</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>288</v>
+      </c>
+      <c r="J40" t="s">
+        <v>289</v>
+      </c>
+      <c r="K40" t="s">
+        <v>290</v>
+      </c>
+      <c r="L40" t="s">
+        <v>291</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>292</v>
+      </c>
+      <c r="O40" t="s">
+        <v>72</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>293</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>294</v>
+      </c>
+      <c r="J41" t="s">
+        <v>295</v>
+      </c>
+      <c r="K41" t="s">
+        <v>296</v>
+      </c>
+      <c r="L41" t="s">
+        <v>297</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>298</v>
+      </c>
+      <c r="O41" t="s">
+        <v>72</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>300</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>301</v>
+      </c>
+      <c r="J42" t="s">
+        <v>302</v>
+      </c>
+      <c r="K42" t="s">
+        <v>303</v>
+      </c>
+      <c r="L42" t="s">
+        <v>304</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>305</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>306</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>307</v>
+      </c>
+      <c r="J43" t="s">
+        <v>308</v>
+      </c>
+      <c r="K43" t="s">
+        <v>309</v>
+      </c>
+      <c r="L43" t="s">
+        <v>310</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>305</v>
+      </c>
+      <c r="O43" t="s">
+        <v>72</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>312</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>313</v>
+      </c>
+      <c r="J44" t="s">
+        <v>314</v>
+      </c>
+      <c r="K44" t="s">
+        <v>315</v>
+      </c>
+      <c r="L44" t="s">
+        <v>316</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>317</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>319</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>320</v>
+      </c>
+      <c r="J45" t="s">
+        <v>321</v>
+      </c>
+      <c r="K45" t="s">
+        <v>322</v>
+      </c>
+      <c r="L45" t="s">
+        <v>323</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>324</v>
+      </c>
+      <c r="O45" t="s">
+        <v>79</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>325</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>326</v>
+      </c>
+      <c r="J46" t="s">
+        <v>327</v>
+      </c>
+      <c r="K46" t="s">
+        <v>328</v>
+      </c>
+      <c r="L46" t="s">
+        <v>329</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>324</v>
+      </c>
+      <c r="O46" t="s">
+        <v>154</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>331</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>332</v>
+      </c>
+      <c r="J47" t="s">
+        <v>333</v>
+      </c>
+      <c r="K47" t="s">
+        <v>334</v>
+      </c>
+      <c r="L47" t="s">
+        <v>335</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>336</v>
+      </c>
+      <c r="O47" t="s">
+        <v>154</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>337</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>338</v>
+      </c>
+      <c r="J48" t="s">
+        <v>339</v>
+      </c>
+      <c r="K48" t="s">
+        <v>340</v>
+      </c>
+      <c r="L48" t="s">
+        <v>341</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>286</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>343</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>344</v>
+      </c>
+      <c r="J49" t="s">
+        <v>345</v>
+      </c>
+      <c r="K49" t="s">
+        <v>346</v>
+      </c>
+      <c r="L49" t="s">
+        <v>347</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>286</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>348</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>349</v>
+      </c>
+      <c r="J50" t="s">
+        <v>350</v>
+      </c>
+      <c r="K50" t="s">
+        <v>351</v>
+      </c>
+      <c r="L50" t="s">
+        <v>352</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>353</v>
+      </c>
+      <c r="O50" t="s">
+        <v>65</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>354</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>355</v>
+      </c>
+      <c r="J51" t="s">
+        <v>356</v>
+      </c>
+      <c r="K51" t="s">
+        <v>357</v>
+      </c>
+      <c r="L51" t="s">
+        <v>358</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>360</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>361</v>
+      </c>
+      <c r="J52" t="s">
+        <v>362</v>
+      </c>
+      <c r="K52" t="s">
+        <v>363</v>
+      </c>
+      <c r="L52" t="s">
+        <v>364</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>4</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>365</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>366</v>
+      </c>
+      <c r="J53" t="s">
+        <v>367</v>
+      </c>
+      <c r="K53" t="s">
+        <v>368</v>
+      </c>
+      <c r="L53" t="s">
+        <v>369</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>370</v>
+      </c>
+      <c r="O53" t="s">
+        <v>154</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>371</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>372</v>
+      </c>
+      <c r="J54" t="s">
+        <v>373</v>
+      </c>
+      <c r="K54" t="s">
+        <v>374</v>
+      </c>
+      <c r="L54" t="s">
+        <v>375</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>376</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>377</v>
+      </c>
+      <c r="J55" t="s">
+        <v>378</v>
+      </c>
+      <c r="K55" t="s">
+        <v>379</v>
+      </c>
+      <c r="L55" t="s">
+        <v>380</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>381</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>382</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>383</v>
+      </c>
+      <c r="J56" t="s">
+        <v>384</v>
+      </c>
+      <c r="K56" t="s">
+        <v>385</v>
+      </c>
+      <c r="L56" t="s">
+        <v>386</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>387</v>
+      </c>
+      <c r="O56" t="s">
+        <v>65</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>388</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>389</v>
+      </c>
+      <c r="J57" t="s">
+        <v>390</v>
+      </c>
+      <c r="K57" t="s">
+        <v>391</v>
+      </c>
+      <c r="L57" t="s">
+        <v>392</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>387</v>
+      </c>
+      <c r="O57" t="s">
+        <v>72</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>4</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>393</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>394</v>
+      </c>
+      <c r="J58" t="s">
+        <v>395</v>
+      </c>
+      <c r="K58" t="s">
+        <v>396</v>
+      </c>
+      <c r="L58" t="s">
+        <v>397</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>398</v>
+      </c>
+      <c r="O58" t="s">
+        <v>154</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>399</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>400</v>
+      </c>
+      <c r="J59" t="s">
+        <v>401</v>
+      </c>
+      <c r="K59" t="s">
+        <v>402</v>
+      </c>
+      <c r="L59" t="s">
+        <v>403</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>404</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>405</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>406</v>
+      </c>
+      <c r="J60" t="s">
+        <v>407</v>
+      </c>
+      <c r="K60" t="s">
+        <v>408</v>
+      </c>
+      <c r="L60" t="s">
+        <v>409</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>404</v>
+      </c>
+      <c r="O60" t="s">
+        <v>65</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>4</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>411</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>412</v>
+      </c>
+      <c r="J61" t="s">
+        <v>413</v>
+      </c>
+      <c r="K61" t="s">
+        <v>414</v>
+      </c>
+      <c r="L61" t="s">
+        <v>415</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>404</v>
+      </c>
+      <c r="O61" t="s">
+        <v>65</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>416</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>417</v>
+      </c>
+      <c r="J62" t="s">
+        <v>418</v>
+      </c>
+      <c r="K62" t="s">
+        <v>419</v>
+      </c>
+      <c r="L62" t="s">
+        <v>420</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>421</v>
+      </c>
+      <c r="O62" t="s">
+        <v>53</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>422</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>423</v>
+      </c>
+      <c r="J63" t="s">
+        <v>424</v>
+      </c>
+      <c r="K63" t="s">
+        <v>425</v>
+      </c>
+      <c r="L63" t="s">
+        <v>426</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>421</v>
+      </c>
+      <c r="O63" t="s">
+        <v>72</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>4</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>428</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>429</v>
+      </c>
+      <c r="J64" t="s">
+        <v>430</v>
+      </c>
+      <c r="K64" t="s">
+        <v>431</v>
+      </c>
+      <c r="L64" t="s">
+        <v>432</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>421</v>
+      </c>
+      <c r="O64" t="s">
+        <v>79</v>
+      </c>
+      <c r="P64" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>433</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>434</v>
+      </c>
+      <c r="J65" t="s">
+        <v>435</v>
+      </c>
+      <c r="K65" t="s">
+        <v>436</v>
+      </c>
+      <c r="L65" t="s">
+        <v>437</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>438</v>
+      </c>
+      <c r="O65" t="s">
+        <v>53</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>3</v>
+      </c>
+      <c r="S65" t="n">
+        <v>4</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>439</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>440</v>
+      </c>
+      <c r="J66" t="s">
+        <v>441</v>
+      </c>
+      <c r="K66" t="s">
+        <v>442</v>
+      </c>
+      <c r="L66" t="s">
+        <v>443</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>444</v>
+      </c>
+      <c r="O66" t="s">
+        <v>65</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>446</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>447</v>
+      </c>
+      <c r="J67" t="s">
+        <v>448</v>
+      </c>
+      <c r="K67" t="s">
+        <v>449</v>
+      </c>
+      <c r="L67" t="s">
+        <v>450</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>1</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>452</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>453</v>
+      </c>
+      <c r="J68" t="s">
+        <v>454</v>
+      </c>
+      <c r="K68" t="s">
+        <v>455</v>
+      </c>
+      <c r="L68" t="s">
+        <v>456</v>
+      </c>
+      <c r="M68" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" t="s">
+        <v>457</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>459</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>460</v>
+      </c>
+      <c r="J69" t="s">
+        <v>461</v>
+      </c>
+      <c r="K69" t="s">
+        <v>462</v>
+      </c>
+      <c r="L69" t="s">
+        <v>463</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>464</v>
+      </c>
+      <c r="O69" t="s">
+        <v>65</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>465</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>466</v>
+      </c>
+      <c r="J70" t="s">
+        <v>467</v>
+      </c>
+      <c r="K70" t="s">
+        <v>468</v>
+      </c>
+      <c r="L70" t="s">
+        <v>469</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>470</v>
+      </c>
+      <c r="O70" t="s">
+        <v>53</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>3</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>469</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_45.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_45.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="747">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,57 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r603544239-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>56226</t>
+  </si>
+  <si>
+    <t>1486005</t>
+  </si>
+  <si>
+    <t>603544239</t>
+  </si>
+  <si>
     <t>08/06/2018</t>
   </si>
   <si>
+    <t>Weekend</t>
+  </si>
+  <si>
+    <t>This place is conviently located just outside the Houston metropolitan area. We were provided great service during our stay. They offer a free breakfast and easy check in and out.The pool is indoors and great for swimming year round.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r584336824-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>584336824</t>
+  </si>
+  <si>
+    <t>06/01/2018</t>
+  </si>
+  <si>
+    <t>Best Western</t>
+  </si>
+  <si>
+    <t>Great staff, pool and whirlpool (great jets for an ache back), we had a 2 king beds with 4 adults and were very comfortable in our room. Staff was alway friendly and helpful. Breakfast was both hot and cold and coffee was great.</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r583397991-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
-    <t>56226</t>
-  </si>
-  <si>
-    <t>1486005</t>
-  </si>
-  <si>
     <t>583397991</t>
   </si>
   <si>
@@ -174,12 +213,6 @@
     <t>Family Gathering near Rosharon, TX. Gathering with Family and Friends to honor a niece who had graduated from a senior Texas college, with Honors. An afternoon affair with plenty of Food and pleasant company !</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r583022634-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -216,6 +249,57 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r581558561-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>581558561</t>
+  </si>
+  <si>
+    <t>05/20/2018</t>
+  </si>
+  <si>
+    <t>Great Choice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is very easy to find, it is located on the highway.  We chose this hotel because we were going on a cruise the next day and we hate to stay in big busy cities.  This was perfect. The drive was really nice, loved the smaller towns we went through.  The restaurant next door has very friendly staff and the food is great.  Any more cruises out of Galveston, this hotel is where we will stay again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r572558599-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>572558599</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Maybe They Should Re-Think-</t>
+  </si>
+  <si>
+    <t>We were in town for an overnight race and booked as we got to the town and saw the hotel and it looked decent.  The lobby and hotel were very clean looking.  The front desk staff was not the friendliest but helpful with restaurant recommendations in the area.  We got to our room and it was overall clean. The carpet had some stains that were a little questionable.  We had a king bed suite with a sofa bed as that was all that was available.  The king bed was not the most comfy and the linens were not very breathable.  The ceiling fans moved but did not move any air.  The sofa bed was opened up for our kids to sleep on and it was apparent that the linens on that bed had been used and not changed... in quite a while.  We had to go to the front desk to get clean linens and they only provided a flat sheet and blanket... no pillows.  I had to go back downstairs to get the fitted sheet.  While attempting to make the bed, I realized I could not let my children sleep on what was nothing but metal coils covered by a thin cloth.  It was terribly uncomfortable.  We ended up making it back into a couch and our oldest child slept on the couch and our youngest slept with us in the bed.  Having 4 of us in the room,...We were in town for an overnight race and booked as we got to the town and saw the hotel and it looked decent.  The lobby and hotel were very clean looking.  The front desk staff was not the friendliest but helpful with restaurant recommendations in the area.  We got to our room and it was overall clean. The carpet had some stains that were a little questionable.  We had a king bed suite with a sofa bed as that was all that was available.  The king bed was not the most comfy and the linens were not very breathable.  The ceiling fans moved but did not move any air.  The sofa bed was opened up for our kids to sleep on and it was apparent that the linens on that bed had been used and not changed... in quite a while.  We had to go to the front desk to get clean linens and they only provided a flat sheet and blanket... no pillows.  I had to go back downstairs to get the fitted sheet.  While attempting to make the bed, I realized I could not let my children sleep on what was nothing but metal coils covered by a thin cloth.  It was terribly uncomfortable.  We ended up making it back into a couch and our oldest child slept on the couch and our youngest slept with us in the bed.  Having 4 of us in the room, there were only two towels.  We went downstairs to get more and the front desk informed us there were no more towels (other guests were down there as well asking for more as there were lots of families staying there due to the race).  He said housekeeping wouldn't be back until the next day and handed us a stack of washcloths.  I will say, the breakfast wasn't that bad. They provided a waffle station (that they ran out of waffle mix once we got to my husband's waffle), eggs, sausage, biscuits, gravy and cereals.  And the coffee was actually quite decent.  Needless to say, it was a meh experience.  I travel A LOT and stay in hotels weekly.  I mostly stay in 4-5 star hotel properties.  I went in thinking this was just a Best Western and not a resort... but I would like to think there would be towels. MoreShow less</t>
+  </si>
+  <si>
+    <t>We were in town for an overnight race and booked as we got to the town and saw the hotel and it looked decent.  The lobby and hotel were very clean looking.  The front desk staff was not the friendliest but helpful with restaurant recommendations in the area.  We got to our room and it was overall clean. The carpet had some stains that were a little questionable.  We had a king bed suite with a sofa bed as that was all that was available.  The king bed was not the most comfy and the linens were not very breathable.  The ceiling fans moved but did not move any air.  The sofa bed was opened up for our kids to sleep on and it was apparent that the linens on that bed had been used and not changed... in quite a while.  We had to go to the front desk to get clean linens and they only provided a flat sheet and blanket... no pillows.  I had to go back downstairs to get the fitted sheet.  While attempting to make the bed, I realized I could not let my children sleep on what was nothing but metal coils covered by a thin cloth.  It was terribly uncomfortable.  We ended up making it back into a couch and our oldest child slept on the couch and our youngest slept with us in the bed.  Having 4 of us in the room,...We were in town for an overnight race and booked as we got to the town and saw the hotel and it looked decent.  The lobby and hotel were very clean looking.  The front desk staff was not the friendliest but helpful with restaurant recommendations in the area.  We got to our room and it was overall clean. The carpet had some stains that were a little questionable.  We had a king bed suite with a sofa bed as that was all that was available.  The king bed was not the most comfy and the linens were not very breathable.  The ceiling fans moved but did not move any air.  The sofa bed was opened up for our kids to sleep on and it was apparent that the linens on that bed had been used and not changed... in quite a while.  We had to go to the front desk to get clean linens and they only provided a flat sheet and blanket... no pillows.  I had to go back downstairs to get the fitted sheet.  While attempting to make the bed, I realized I could not let my children sleep on what was nothing but metal coils covered by a thin cloth.  It was terribly uncomfortable.  We ended up making it back into a couch and our oldest child slept on the couch and our youngest slept with us in the bed.  Having 4 of us in the room, there were only two towels.  We went downstairs to get more and the front desk informed us there were no more towels (other guests were down there as well asking for more as there were lots of families staying there due to the race).  He said housekeeping wouldn't be back until the next day and handed us a stack of washcloths.  I will say, the breakfast wasn't that bad. They provided a waffle station (that they ran out of waffle mix once we got to my husband's waffle), eggs, sausage, biscuits, gravy and cereals.  And the coffee was actually quite decent.  Needless to say, it was a meh experience.  I travel A LOT and stay in hotels weekly.  I mostly stay in 4-5 star hotel properties.  I went in thinking this was just a Best Western and not a resort... but I would like to think there would be towels. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r555937009-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>555937009</t>
+  </si>
+  <si>
+    <t>01/23/2018</t>
+  </si>
+  <si>
+    <t>Good for the Night</t>
+  </si>
+  <si>
+    <t>We stayed here while some work was being done on our old home. It was close to our old neighborhood and worked well for the night. It was also night that they allow dogs and the indoor pool was a nice treat for the kids. Breakfast in the morning also helped start us off for our busy day.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r536079457-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -285,6 +369,48 @@
     <t>I stayed at this location for 10 minutes.  I was given a room that had a dead roach on the floor, A huge dead spider in the bathtub and a piece of a vacuum next to the bed.  I went to the front desk and was given another room.  I walked in to find a huge cigarette burn hole in the comforter.  I immediately left.  Stay away!!!!  I went from paying $93.56 for a room to $247.47 at a clean hotel.  I called Best Western customer support and they are doing nothing at all for me other than a sorry.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r509204993-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>509204993</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>BW Plus needs more plus</t>
+  </si>
+  <si>
+    <t>First,this is a great place to stay if your heading to Galveston from south Texas. It keeps you from having to go thru Houston. 2nd. the hotel is clean, nice and has an indoor (unheated pool) wit a hot tub. The internet work ok and there are some good places to eat next door. Now the part I feel is not up to a BW Plus standard, The breakfast is more along the lines of a regular BW not a BW Plus.  We are BW Rewards Platinum members so we have stayed at a few BW's as you can guess.</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r504651961-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>504651961</t>
+  </si>
+  <si>
+    <t>07/22/2017</t>
+  </si>
+  <si>
+    <t>customer service and cleaniness</t>
+  </si>
+  <si>
+    <t>This hotel was very clean. customer service was excellent and I will definitely stay there again. I will definitely recommend this hotel to family, friends, and anyone one else,  TJ the manager was very helpful and pleasant.MoreShow less</t>
+  </si>
+  <si>
+    <t>BWPlus_Manvel, Front Office Manager at Best Western Plus Manvel Inn &amp; Suites, responded to this reviewResponded July 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2017</t>
+  </si>
+  <si>
+    <t>This hotel was very clean. customer service was excellent and I will definitely stay there again. I will definitely recommend this hotel to family, friends, and anyone one else,  TJ the manager was very helpful and pleasant.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r504035203-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -300,15 +426,6 @@
     <t>A very nice hotel and we scored a room with 2 king beds!  Don't think we've ever had one before.  Breakfast room was well equipped, even had 2 waffle makers.  There wasn't much around the hotel but the Cajun/creole restaurant across the road served great food!MoreShow less</t>
   </si>
   <si>
-    <t>July 2017</t>
-  </si>
-  <si>
-    <t>BWPlus_Manvel, Front Office Manager at Best Western Plus Manvel Inn &amp; Suites, responded to this reviewResponded July 24, 2017</t>
-  </si>
-  <si>
-    <t>Responded July 24, 2017</t>
-  </si>
-  <si>
     <t>A very nice hotel and we scored a room with 2 king beds!  Don't think we've ever had one before.  Breakfast room was well equipped, even had 2 waffle makers.  There wasn't much around the hotel but the Cajun/creole restaurant across the road served great food!More</t>
   </si>
   <si>
@@ -363,6 +480,39 @@
     <t>No towels! Asked for more and they were out! No towels in swim area, water was ice cold, no one got to swim and that's the reason we chose this place! Just saddened by the value and we got TWO rooms. Not going to consider bw again!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r480065898-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>480065898</t>
+  </si>
+  <si>
+    <t>04/29/2017</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Rooms were very nice and big!! So comfortable, pool was great, staff was great! Breakfast was good and hot! My kids enjoyed it! Liked the fact we were able to get adjoining rooms for my teenagers!!!!!!! MoreShow less</t>
+  </si>
+  <si>
+    <t>Rooms were very nice and big!! So comfortable, pool was great, staff was great! Breakfast was good and hot! My kids enjoyed it! Liked the fact we were able to get adjoining rooms for my teenagers!!!!!!! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r474870070-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>474870070</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>very nice</t>
+  </si>
+  <si>
+    <t>This is another great example of the quality of the best western hotels..... everyone was polite and helpful ,, room was very clean, breakfast bar was excellent,,, look forward to returning again ,great  location, very quiet neighborhood .......</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r474455711-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -378,9 +528,6 @@
     <t>Great hotel for the price. Staff is friendly. Location had some construction but overall a good experience. The breakfast items were good and fresh, and plentiful. The rooms are spacious and the beds are comfortable. I have been to this location several times and each time I've been greeted with a smile from the staff.</t>
   </si>
   <si>
-    <t>April 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r473094362-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -426,6 +573,48 @@
     <t>My husband and I stayed one night. The Mexican restaurant located in front of the hotel has affordable good food. The blower on the jacuzzi was broken on our stay, but was assured it was in working order. They did accommodate us with a jacuzzi suite which was really nice. Breakfast was good and the room was clean.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r462614266-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>462614266</t>
+  </si>
+  <si>
+    <t>02/24/2017</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>The Best Western in Manvel was a great hotel to stay in.  It was clean and we had a great room with a very comfortable bed.  The breakfast was good.  It was close to a seafood restaurant which served good food for a good price.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>BWPlus_Manvel, Front Office Manager at Best Western Plus Manvel Inn &amp; Suites, responded to this reviewResponded February 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2017</t>
+  </si>
+  <si>
+    <t>The Best Western in Manvel was a great hotel to stay in.  It was clean and we had a great room with a very comfortable bed.  The breakfast was good.  It was close to a seafood restaurant which served good food for a good price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r462361256-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>462361256</t>
+  </si>
+  <si>
+    <t>02/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adequate </t>
+  </si>
+  <si>
+    <t>I picked this hotel for the indoor pool, it was February and the pool was not heated. Having a pool is important to me so that made the stay adequate. The bed was comfortable and the room clean. Breakfast was standard hotel breakfast. The gym was very small and hot.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r443625963-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -483,6 +672,45 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r407314547-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>407314547</t>
+  </si>
+  <si>
+    <t>08/18/2016</t>
+  </si>
+  <si>
+    <t>First time visitor</t>
+  </si>
+  <si>
+    <t>I pick this hotel on line.  Was very pleased with the services, the staff, and the room.  A real Diamond of a find.  Will not stay anywhere else.  Close to where I needed to be, close to main highways.  Close to shopping and golf courses.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r399322323-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>399322323</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A valiant effort. </t>
+  </si>
+  <si>
+    <t>What an experience.  It took 3 tries to get us in a room that was acceptable.  The first one had a towel in front of the door  (in the hallway) and when we opened the door it looked like a crime scene.   The second had 11 office chairs in it.   Since this was the only room with 2 beds left they had no choice but to make arrangements for the chairs.   Finally got settled in and decided on the pool.   Pool towels were non existent so back to the desk I go.   The poor girl at the desk was great and tried to make up for the errors.  Unfortunately there's no other option close by so we were stuck. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>What an experience.  It took 3 tries to get us in a room that was acceptable.  The first one had a towel in front of the door  (in the hallway) and when we opened the door it looked like a crime scene.   The second had 11 office chairs in it.   Since this was the only room with 2 beds left they had no choice but to make arrangements for the chairs.   Finally got settled in and decided on the pool.   Pool towels were non existent so back to the desk I go.   The poor girl at the desk was great and tried to make up for the errors.  Unfortunately there's no other option close by so we were stuck. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r392757970-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -498,9 +726,6 @@
     <t>TJ &amp; his staff make it a great experience from start to finish. Really nice building &amp; amenities. We spend about 2 weeks a year in Texas &amp; wouldn't stay anywhere else. If you're in the area, stay here---you'll be glad you did!!</t>
   </si>
   <si>
-    <t>July 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r386857686-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -531,6 +756,45 @@
     <t>Bad experience at check in, a couple of issues. Smoke terrible in what is supposed to be a non-smoking facility.  Bed and linens uncomfortable.  Noise from street traffic bad.  Although the check out time was 11:00 am and the do not disturb sign on the door, the maid showed up at 9:30 am knocking on the door until I answered and she wanted to know when I was leaving.  Needless to say she woke me up after a long night trying to sleep with the constant disturbance of cigarette smoking causing difficult breathing problem.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r379220560-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>379220560</t>
+  </si>
+  <si>
+    <t>06/02/2016</t>
+  </si>
+  <si>
+    <t>Nice and quiet</t>
+  </si>
+  <si>
+    <t>We were in Manvel visiting family and attending a high school graduation. We stayed 4 days, Wednesday thru Sunday. When we arrived the hotel was basically empty but by Friday it was full of children of all ages. We never heard them. The staff was helpful and enjoyable to visit with. We had troubles with our phone and they came ASAP to fix it. It took no time at all. The showers were big heads and enjoyable. Breakfast included a waffle machine, scramble eggs, biscuits and gravy, toast and baked goods, fruit, cold and hot cereal and yogurt. The coffee was awesome! The pool looked nice but the hot tub was a bit small, we did not use either.All in all we were quite happy with our stay. By the way we had 2 rooms with 5 of us.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>We were in Manvel visiting family and attending a high school graduation. We stayed 4 days, Wednesday thru Sunday. When we arrived the hotel was basically empty but by Friday it was full of children of all ages. We never heard them. The staff was helpful and enjoyable to visit with. We had troubles with our phone and they came ASAP to fix it. It took no time at all. The showers were big heads and enjoyable. Breakfast included a waffle machine, scramble eggs, biscuits and gravy, toast and baked goods, fruit, cold and hot cereal and yogurt. The coffee was awesome! The pool looked nice but the hot tub was a bit small, we did not use either.All in all we were quite happy with our stay. By the way we had 2 rooms with 5 of us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r370830908-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>370830908</t>
+  </si>
+  <si>
+    <t>05/06/2016</t>
+  </si>
+  <si>
+    <t>VERY Helpful and Caring Staff</t>
+  </si>
+  <si>
+    <t>Nice, newer hotel with a staff that goes out of their way to help.  From recommendations around the area, to working with my timeline, they were very accommodating.  It is conveniently located and easy to get to.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r368152972-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -546,9 +810,6 @@
     <t>Very nice hotel clean make sure everything works in the room when you get it especially the iron and the microwave, nice pool. Staff is very nice and helpful. They go out of their way to make sure that you have a good day. By far the best hotel in the area. If you have to stay in Manville this is the place to stay</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r368031838-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -582,6 +843,36 @@
     <t>Room was spacious with mini-kitchen. Everything worked though in rough shape. Breakfast was plentiful. Pool looked great (not heated). Towels situation was strange. Towels were picked up from room but weren't replaced until several hours later. Halls and stairways needed to be vacuumed! And the parking lot was trashy with broken bottles and empty cans. This started as a very nice motel but is suffering from neglect. Too bad.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r365298289-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>365298289</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Nice hotel and good location</t>
+  </si>
+  <si>
+    <t>Hotel had a comfortable bed, and the room was clean.  Only had one bath towel, so had to request more.  hot tub had to many chemicals and caused your eyes to burn from the fumes. Staff put the breakfast out early because many guest had to depart by 7:00am for a competition. All in all I will stay here again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r365018612-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>365018612</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Room Not Ready</t>
+  </si>
+  <si>
+    <t>Room wasn't ready at 2pm. The website said check in was 2pm. When the room was finally ready there were no towels. I went to the front desk which was no help. They said the maid brings them by later.  I had to track down the maid and finally found her on the second floor. Finally got towels. Business room had problems with printer. I couldn't print docs.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r363323216-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -630,6 +921,36 @@
     <t>We stayed two nights while visiting family. The room was clean well appointed and as we expected from a Best Western property. The free breakfast included eggs, sausage, waffles cereal, yogurt and juices and coffee. It was most satisfying. The check in person was quick and efficient. It's location is on a major highway and easily accessed. Several restaurants in the area include hamburgers, seafood, Chinese and Mexican. We enjoyed our stay and will return.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r361674989-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>361674989</t>
+  </si>
+  <si>
+    <t>04/04/2016</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Birthday weekend to celebrate.  Had a good stay at this hotel.  Staff is friendly and service is really good. The breakfast included with the stay makes for an extra bonus when traveling.  I would stay at this hotel again.  The indoor pool and fitness center is also really nice.  Great place for families.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r359595002-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>359595002</t>
+  </si>
+  <si>
+    <t>03/28/2016</t>
+  </si>
+  <si>
+    <t>Love it!!</t>
+  </si>
+  <si>
+    <t>We stayed at 3 separate hotels recently. This was our favorite one!  We only stay at Best Western Plus and this location is one of the reasons why. Our room was excellent, clean just perfect. The staff was very friendly and helpful. Even loaned us a stapler so we could get our cruise luggage ready. Breakfast was also great with a very wide selection to chose from. Our future trips going this direction will include a stop back here.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r357713255-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -684,6 +1005,39 @@
     <t>Went to this Best Western because of the indoor pool. We were celebrating my daughter's 18th birthday, so I booked 2 rooms. Found out they do not heat the indoor pool so was not usable. Hot tub was extremely chlorinated but nice temperature. Our room only had 6 pillows. I did not think anything about it, but was charged $75. When I called today they said they were 3 pillows short and charged me.  I didn't even know there should have been 4 pillows in a room. I've called twice today to resolve and still waiting for a credit. Someone either below us or next door smoked, because cigarette smoke filtered into the room. I told front desk, they said all the air vents are connected. She supposedly was calling that room that first evening. I didn't even bother Saturday morning.  It is supposed to be a 100% smoke free hotel.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r345450959-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>345450959</t>
+  </si>
+  <si>
+    <t>02/06/2016</t>
+  </si>
+  <si>
+    <t>weekend get away</t>
+  </si>
+  <si>
+    <t>Went to the hot tub and there was a woman with her little baby and little kids in it . Her other son was in the pool in his underware. Reported it the  duty manager and she said there is no policy against it. That means that when you swim in the pool or get in the hot tub you are getting into a tub or pool full of kids urine . They dont clean the pool or hot tub.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r345193338-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>345193338</t>
+  </si>
+  <si>
+    <t>02/05/2016</t>
+  </si>
+  <si>
+    <t>visiting family</t>
+  </si>
+  <si>
+    <t>this hotel is beautiful, the rooms are very clean and quiet. We had a double king room that was very nice.  The beds were extremely comfortable.  The staff was very friendly.  We spent 2 nights here and didn't want to leave!!  The outside landscaping  is beautiful and pleasant.  I would definitely stay here again</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r342744935-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -699,9 +1053,6 @@
     <t>Loved you Wheel Chair Accesible room with the Roll In Shower. Very accessible for wheel chair and non wheel chair. Most people only focus disability as "Wheelchair" and it was nice to see this hotel focused on both disability issues. Towel rack was low enough for wheelchair and for people with a disability. I have Muscular Dystrophy and things above my shoulders are extremely difficult for me to reach. It was nice having a room that fit my needs as well as wheelchair needs. Very beautiful decor also! Great job!</t>
   </si>
   <si>
-    <t>January 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r337299960-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -741,6 +1092,42 @@
     <t>stayed Christmas 2015, 3 days. We had the King Bed room on bottom floor. The lobby was a good indicator of the quality there. Walked in room and was blown away at the beauty of the room. It was like a second honeymoon to us. We're not rich but we thought we were here! We will be back and want the same room. We took plenty of pictures of the woodwork moldings and hallways. We will be remolding soon and want to duplicate this look, especially the lobby.Only complaint I have is the ceiling fan was for show as well as the globe lights.  I really wanted to turn the fan on instead of air conditioner and utilize a ceiling light, not tables lamps. Therefore I couldn't see a lot of things. Great television stations.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r324988520-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>324988520</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>Not bad for the price</t>
+  </si>
+  <si>
+    <t>The hotel is generally okay.  They accommodate late check-in no problem.  The overnight staff could use a Best Western logo polo or something to identify him as an employee but he is nice and helpful.  The rooms are large for a hotel.  The beds are very firm so if you like that its good. They could use a make over in the bedding department for the comforters, they appear overly worn.  Temperature control was okay but the units are right under the windows and are noisy and if you close the drapes the air is caught under them which makes the units run longer.  The rooms having ceiling fans, which is nice.  Bathroom is large and clean and nicely done.  The breakfast buffet in the morning is what you would expect for a freebie, make your own waffles, eggs, sausage, biscuits (skip them - they are hockey pucks), pastries, toast, bagels, fruit, juice.  I eat very early so everything is fresh at that time.  For a relatively inexpensive stay its not bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>The hotel is generally okay.  They accommodate late check-in no problem.  The overnight staff could use a Best Western logo polo or something to identify him as an employee but he is nice and helpful.  The rooms are large for a hotel.  The beds are very firm so if you like that its good. They could use a make over in the bedding department for the comforters, they appear overly worn.  Temperature control was okay but the units are right under the windows and are noisy and if you close the drapes the air is caught under them which makes the units run longer.  The rooms having ceiling fans, which is nice.  Bathroom is large and clean and nicely done.  The breakfast buffet in the morning is what you would expect for a freebie, make your own waffles, eggs, sausage, biscuits (skip them - they are hockey pucks), pastries, toast, bagels, fruit, juice.  I eat very early so everything is fresh at that time.  For a relatively inexpensive stay its not bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r324057435-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>324057435</t>
+  </si>
+  <si>
+    <t>11/02/2015</t>
+  </si>
+  <si>
+    <t>Comfortable and Roomy</t>
+  </si>
+  <si>
+    <t>We have searched the area for a reasonable rate and a decent hotel before.  This stay was better than the others and we will return in the future.  The room was comfortable and gave a sense of ease--not a crowded box.  Breakfast was generous and with a good variety.  The staff were courteous and helpful.  Overall, it makes the 7 hr trip to Houston a lot more bearable.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r320285460-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -795,6 +1182,39 @@
     <t>I was very impressed with this room....I have been to several and this was the best one yet of them all.... I think the others should model from this one.....The rooms and hotel was so nice and clean...I started to extend my trip just to stay and relax at hotel.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r310645719-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>310645719</t>
+  </si>
+  <si>
+    <t>09/15/2015</t>
+  </si>
+  <si>
+    <t>Good value</t>
+  </si>
+  <si>
+    <t>This motel was a good value for the price.  Room was clean, staff was friendly and overall it was a good experience.  It was relatively close to restaurants.  Surprisingly it was relatively quiet considering it was right in hwy. 6.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r310389514-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>310389514</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Two Thumbs up</t>
+  </si>
+  <si>
+    <t>The hotel staff is extremely nice and helpful! I'm glad I found this hotel and will continue to stay there. There is absolutely nothing that I could complain about but there is SO much that I could praise them for.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r309421237-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -846,6 +1266,39 @@
     <t>August 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r300087332-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>300087332</t>
+  </si>
+  <si>
+    <t>08/16/2015</t>
+  </si>
+  <si>
+    <t>Family Reunion</t>
+  </si>
+  <si>
+    <t>I had a horrible experience with hotwire. so when I arrived my rooms were a total mess but the hotel was very accommodating and helped us. we will definitely be returning in the future. Hotel was nice. beds were comfortable and very clean.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r284553692-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>284553692</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>Night before flying home</t>
+  </si>
+  <si>
+    <t>This hotel was on our way to the airport in Austin from Angleton. We needed a place to stay for the night before flying back home. This hotel was PERFECT!!! They were friendly and the rooms were spacious. The breakfast in the morning was just what we needed before leaving on a plane for 3 hours. The beds were comfortable, we didn't hear any of the other occupants. I would stay here again when we are in town!</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r276564085-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -897,6 +1350,36 @@
     <t>April 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r266950535-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>266950535</t>
+  </si>
+  <si>
+    <t>04/20/2015</t>
+  </si>
+  <si>
+    <t>Review of Best Western Plus in Manvel</t>
+  </si>
+  <si>
+    <t>What can I say, a typical Best Western Plus Hotel. Above average in every respect. Easy access, friendly staff, clean room. 200 character minimum, eh, for reviews; so these last words are simply padding to make a computer somewhere keep it's job by counting the letters in this review.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r266092159-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>266092159</t>
+  </si>
+  <si>
+    <t>04/16/2015</t>
+  </si>
+  <si>
+    <t>One of the best, Wifi Works Great!</t>
+  </si>
+  <si>
+    <t>this is by far one of the best westerns we have ever stay in!!!!! the breakfast is great. (real eggs) very clean and friendly staff! i have stayed in many hotels with free wifi that is slow and garbage, the wifi was super fast! love it! will differently stay again</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r259338935-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -954,6 +1437,42 @@
     <t>We saw this hotel last year after we stayed in a different hotel.  This hotel is right around the corner from the high school which is where our meet was held.  I was slightly leery of staying in a Best Western because I have had a few bad experiences with the chain years ago.  The two king beds per room made it easier to try your hotel again.  The experience this time erased all doubts I had about staying in the Best Western chain.  Great service and the rooms had plenty of room for four people per room without being cramped.  We had a issue with a missing remote for the tv and the front desk replaced it immediately.  Breakfast was better than just a continental breakfast with hot scrambled eggs, sausage, biscuits and gravy on top of the rolls and muffins.  Good job Best Western!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r247840995-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>247840995</t>
+  </si>
+  <si>
+    <t>01/06/2015</t>
+  </si>
+  <si>
+    <t>Good overnight stay</t>
+  </si>
+  <si>
+    <t>Going from Austin to Galveston to embark on a cruise, we decided to make the drive the day before, so as not to be too rushed.  This hotel was in a great location, because it allowed us to get through the chaos that is Houston traffic, and wake up the day of the cruise only about an hour's drive from the cruise terminal.  The rate was also much lower than anything in Galveston.As for the stay itself, we were quite pleased.  Check in was fast and smooth, our room was quite large and very clean, and included a mini-fridge and microwave.  Adjacent to the front desk was a nice selection of snacks and treats for sale if you don't feel like going out, although we enjoyed dinner at Brisas Mexican restaurant, located just across the parking lot.  The complimentary breakfast offered was nothing special, but good enough to fuel our drive and hold us until we boarded the ship.The only downside to this hotel is that the free wifi was only available in the common areas.  Since the hotel itself appears to be fairly new, I'm not sure why it wasn't in the room, but this was only a minor issue, and not too important to us since our stay was so brief.  Overall, I would recommend this hotel for its nice accommodations and friendly staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Going from Austin to Galveston to embark on a cruise, we decided to make the drive the day before, so as not to be too rushed.  This hotel was in a great location, because it allowed us to get through the chaos that is Houston traffic, and wake up the day of the cruise only about an hour's drive from the cruise terminal.  The rate was also much lower than anything in Galveston.As for the stay itself, we were quite pleased.  Check in was fast and smooth, our room was quite large and very clean, and included a mini-fridge and microwave.  Adjacent to the front desk was a nice selection of snacks and treats for sale if you don't feel like going out, although we enjoyed dinner at Brisas Mexican restaurant, located just across the parking lot.  The complimentary breakfast offered was nothing special, but good enough to fuel our drive and hold us until we boarded the ship.The only downside to this hotel is that the free wifi was only available in the common areas.  Since the hotel itself appears to be fairly new, I'm not sure why it wasn't in the room, but this was only a minor issue, and not too important to us since our stay was so brief.  Overall, I would recommend this hotel for its nice accommodations and friendly staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r246465501-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>246465501</t>
+  </si>
+  <si>
+    <t>12/29/2014</t>
+  </si>
+  <si>
+    <t>Weekend Trip to see Family</t>
+  </si>
+  <si>
+    <t>This is a great place to stay, clean rooms and friendly staff, The indoor pool was to cold to swim because of heating problem l guess at the time but the hot tube was great. Would stay there again just because of the great price and quality of the rooms and staff.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r242632684-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -1011,24 +1530,51 @@
     <t>I hate Houston traffic day or night. After my business in Houston I needed to leave early and head back to Brownsville. To avoid the Houston traffic, I looked for a hotel outside of Houston. I was surprised to find a Best Western in Manvel, of all places. But it turned out to be perfect. Got on highway 6 to Sugarland on hopped onto highway 59 with no problem. The hotel seems to be new and the room was bigger than expected. The bed was very comfy. Breakfast was a bit disappointing in that the eggs and sausage were cold. The warmer may not have been turned on. But overall, great place to stay if you want to get out of Houston quick heading south.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r228933018-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>228933018</t>
+  </si>
+  <si>
+    <t>09/14/2014</t>
+  </si>
+  <si>
+    <t>Great Value, great people</t>
+  </si>
+  <si>
+    <t>Found hotel on line and loved the value/price.  Heading to Galveston for a cruise and hoped it would be good.  It was beyond my expectations!  TRULY LOVED IT!  No noise, small, but adequate pool to relax.  Small, but quite adequate exercise room with TV.  Nice fireplace and FOX News in lobby.  Breakfast -- eggs could have tasted better, but breads and waffles were great and cold cereal perfect!!!  Biscuits and gravy -- NO!  Maybe I have high standards -- but the biscuits were hockey pucks and the gravy watery.  I would DEFINITELY stay here again!!!!</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r227833911-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>227833911</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>Clean and Quiet</t>
+  </si>
+  <si>
+    <t>Well kept hotel. Rooms were clean, nice breakfast. Will recommend. Stayed 4 nights on business. It is in the middle of nowhere but still felt it was safe. Only issue was with the water pressure in the shower but I think it was just an isolated incident.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r227833116-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
     <t>227833116</t>
   </si>
   <si>
-    <t>09/08/2014</t>
-  </si>
-  <si>
     <t>Excellent hotel and a great bargain</t>
   </si>
   <si>
     <t>Friendly staff, great complimentary breakfast, well-equipped gym, clean indoor pool and whirlpool.  The room was immaculate.  Easy commute from Houston and excellent dining locations nearby.  I would suggest trying out Manvel Seafood Restaurant.  There is a nearby Dollar Store and everything is within walking distance of the hotel.  This was my fifth visit to this particular hotel and I have never had anything but a superior experience.</t>
   </si>
   <si>
-    <t>September 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r221484628-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -1062,6 +1608,39 @@
     <t>We chose a room with two kings for our young adult sons. Really nice. Close enough to Houston &amp; Galveston to save some serious money for our family vacation.  Continental breakfast had hot &amp; cold foods as well as waffles, juice &amp; milk.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r220785773-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>220785773</t>
+  </si>
+  <si>
+    <t>08/09/2014</t>
+  </si>
+  <si>
+    <t>Man's Best Western</t>
+  </si>
+  <si>
+    <t>If you want to be out of the city and still be near enough to get there, and yet avoid early morning commuting when you hit the road. Just look in Manvel, A very up to date BW with friendly staff with better than expected appointed rooms. Out of the way? Not really, just far enough to get into Sugarland, Richmond, and Rosenburg in just a few minutes, and Houston within the hour based on traffic and time of day.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r220386313-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>220386313</t>
+  </si>
+  <si>
+    <t>08/07/2014</t>
+  </si>
+  <si>
+    <t>Comfortable</t>
+  </si>
+  <si>
+    <t>The hotel is located in a quiet suburb south of Houston. There is very little noise and we enjoyed that part. Couple of very good restuarants just down the road. The hotel appearance both inside and out is very good. The price for what you get is exceptional. Now to the nitty gritty, the room appeared clean but if you looked at the floors near the walls and furniture, it wasn't clean at all. The toilet base was loose and wobbled back and forth. When the room was cleaned, the towels were not replaced even though they did remove the dirty ones. We had to request them from the desk clerk. The internet wifi was spotty at times, kicking us off occasionally. The upholstery on the desk chair was ripped. The food presentation was great but it was only warm and the gravy was so thick you couldn't get it off the serving spoon. Still all in all, it was a decent hotel at a very decent price and the bed was very comfortable. I would stay there again but I would report all items to the front desk which I didn't do.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is located in a quiet suburb south of Houston. There is very little noise and we enjoyed that part. Couple of very good restuarants just down the road. The hotel appearance both inside and out is very good. The price for what you get is exceptional. Now to the nitty gritty, the room appeared clean but if you looked at the floors near the walls and furniture, it wasn't clean at all. The toilet base was loose and wobbled back and forth. When the room was cleaned, the towels were not replaced even though they did remove the dirty ones. We had to request them from the desk clerk. The internet wifi was spotty at times, kicking us off occasionally. The upholstery on the desk chair was ripped. The food presentation was great but it was only warm and the gravy was so thick you couldn't get it off the serving spoon. Still all in all, it was a decent hotel at a very decent price and the bed was very comfortable. I would stay there again but I would report all items to the front desk which I didn't do.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r213001506-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -1113,6 +1692,45 @@
     <t>Once again I stayed at this hotel for 3 days like every year.The room was clean,breakfast was excellent as always.The morning staff was really rude,her attitude was not friendly at all.(Natalia) I think that was her name.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r201410748-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>201410748</t>
+  </si>
+  <si>
+    <t>04/16/2014</t>
+  </si>
+  <si>
+    <t>Great Place</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel. I was pleasantly surprised by how nice the room was, especially since it included a "kitchenette" like area with a small fridge, cabinets, sink and cooktop. The only thing that was annoying in the room was the buzz noise coming from the fridge because it is just a few steps away from the bed. The breakfast was nice and comparable to other places I have stayed. I had some trouble getting the the internet to work but when I contacted the front desk assistant she was helpful and suggested that I use one of their ethernet cords which solved the connection issues. If I am ever in the area again, I will stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>This is a very nice hotel. I was pleasantly surprised by how nice the room was, especially since it included a "kitchenette" like area with a small fridge, cabinets, sink and cooktop. The only thing that was annoying in the room was the buzz noise coming from the fridge because it is just a few steps away from the bed. The breakfast was nice and comparable to other places I have stayed. I had some trouble getting the the internet to work but when I contacted the front desk assistant she was helpful and suggested that I use one of their ethernet cords which solved the connection issues. If I am ever in the area again, I will stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r201114858-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>201114858</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>Another Stay</t>
+  </si>
+  <si>
+    <t>Again we had the opportunity to stay at this hotel for two nights. The room , A King Suite, was again clean and well appointed. 32" LED TV, a single king bed, a couch and a matching chair. Bathroom was clean and with plenty of towels and amenities.We had only on glich which was as much my fault as the motels. The cleaning person knocked about 11 AM and we told them we'd be gone by 1PM and was told to let the desk know. Upon leaving she was doing the room across from us, we made eye and voice contact, told her we were leaving and didn't return untill 8:30 PM... No house keeping was done. This was also reported to the main desk. Like I said as much my fault as theirs.Again the hot tub was frothy although several were using the pool.In house breakfast bar was again excellent.I'm giving a 4 star which should be a 3 1/2MoreShow less</t>
+  </si>
+  <si>
+    <t>Again we had the opportunity to stay at this hotel for two nights. The room , A King Suite, was again clean and well appointed. 32" LED TV, a single king bed, a couch and a matching chair. Bathroom was clean and with plenty of towels and amenities.We had only on glich which was as much my fault as the motels. The cleaning person knocked about 11 AM and we told them we'd be gone by 1PM and was told to let the desk know. Upon leaving she was doing the room across from us, we made eye and voice contact, told her we were leaving and didn't return untill 8:30 PM... No house keeping was done. This was also reported to the main desk. Like I said as much my fault as theirs.Again the hot tub was frothy although several were using the pool.In house breakfast bar was again excellent.I'm giving a 4 star which should be a 3 1/2More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r196201000-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -1164,6 +1782,39 @@
     <t>December 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r185813865-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>185813865</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>And, an overhead fan!</t>
+  </si>
+  <si>
+    <t>First thing that met us as we opened the door to our better-than-expected room was an overhead fan! Don't mean to be making a "thing" out of this, but I can't remember ever having a fan in a hotel room, not even in Hawaii! "Oh sure," I said to myself.........must be a kiddy fan that's there only for looks and not geared for action. NOT SO, Kimosabe (a little Lone Ranger talk).That fan, coupled with the excellent AC kept us in igloo fashion (we love a cold room) all night! The room sported a sink, refrigerator, stove, and microwave..........much of what you'd expect in a min-suite, EXCEPT we didn't pay for a mini-suite..........am guessing it was their standard room!?! Great bed, by the way......a bit high off the ground, but comfortable. Breakfast was a cut-above: scrambled eggs, sausage, biscuits, waffle maker, good selection of cereals, yogurt, fruit. Couple all that with a modest price............what a deal!! We loved it......will returnMoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>First thing that met us as we opened the door to our better-than-expected room was an overhead fan! Don't mean to be making a "thing" out of this, but I can't remember ever having a fan in a hotel room, not even in Hawaii! "Oh sure," I said to myself.........must be a kiddy fan that's there only for looks and not geared for action. NOT SO, Kimosabe (a little Lone Ranger talk).That fan, coupled with the excellent AC kept us in igloo fashion (we love a cold room) all night! The room sported a sink, refrigerator, stove, and microwave..........much of what you'd expect in a min-suite, EXCEPT we didn't pay for a mini-suite..........am guessing it was their standard room!?! Great bed, by the way......a bit high off the ground, but comfortable. Breakfast was a cut-above: scrambled eggs, sausage, biscuits, waffle maker, good selection of cereals, yogurt, fruit. Couple all that with a modest price............what a deal!! We loved it......will returnMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r185555931-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>185555931</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>Nice stay.  Enjoyed being away from the Houston Hustle, but close enough for a trip into the city.  Very good seafood restaurant just down the street.  Interested in trying the burger restaurant on out next stay.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r182525130-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -1215,6 +1866,52 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r174239313-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>174239313</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>Pretty Close to a Perfect Review</t>
+  </si>
+  <si>
+    <t>Our preferred Best Western Plus in Houston was booked solid so our family decided to give this Best Western Plus a try.  
+We stayed in a suite which was more than spacious for our family of four.  The room was clean and quiet.  The beds were comfortable and the shower head was at the correct height.  The property was very clean and there were no issues with the internet.  
+The advantage that this Best Western Plus has is that while it's located within the Houston suburbs it's away from the congestion.  
+This Best Western Plus does have some room for improvement.  While there weren't many occupants staying here the night we were here the vending machines were empty which necessitated a walk across Route 6 to the convenience store on the opposite side of the road.  A trip across Route 6 might not be dangerous in the evening hours it would probably be more trickier in the daytime.  
+The big issue was the Continental Breakfast.  When you stated that your Continental Breakfast starts at 6 a.m. that's the time the breakfast should be ready and available.  Our family went down for breakfast at 6:20 a.m. and they were still in the process of getting the breakfast items out.  When we left the dining room at 6:45 a.m. they still hadn't completed getting the items out.  
+Our family would stay here again if we weren't flying out of Houston in the...Our preferred Best Western Plus in Houston was booked solid so our family decided to give this Best Western Plus a try.  We stayed in a suite which was more than spacious for our family of four.  The room was clean and quiet.  The beds were comfortable and the shower head was at the correct height.  The property was very clean and there were no issues with the internet.  The advantage that this Best Western Plus has is that while it's located within the Houston suburbs it's away from the congestion.  This Best Western Plus does have some room for improvement.  While there weren't many occupants staying here the night we were here the vending machines were empty which necessitated a walk across Route 6 to the convenience store on the opposite side of the road.  A trip across Route 6 might not be dangerous in the evening hours it would probably be more trickier in the daytime.  The big issue was the Continental Breakfast.  When you stated that your Continental Breakfast starts at 6 a.m. that's the time the breakfast should be ready and available.  Our family went down for breakfast at 6:20 a.m. and they were still in the process of getting the breakfast items out.  When we left the dining room at 6:45 a.m. they still hadn't completed getting the items out.  Our family would stay here again if we weren't flying out of Houston in the morning hours.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Our preferred Best Western Plus in Houston was booked solid so our family decided to give this Best Western Plus a try.  
+We stayed in a suite which was more than spacious for our family of four.  The room was clean and quiet.  The beds were comfortable and the shower head was at the correct height.  The property was very clean and there were no issues with the internet.  
+The advantage that this Best Western Plus has is that while it's located within the Houston suburbs it's away from the congestion.  
+This Best Western Plus does have some room for improvement.  While there weren't many occupants staying here the night we were here the vending machines were empty which necessitated a walk across Route 6 to the convenience store on the opposite side of the road.  A trip across Route 6 might not be dangerous in the evening hours it would probably be more trickier in the daytime.  
+The big issue was the Continental Breakfast.  When you stated that your Continental Breakfast starts at 6 a.m. that's the time the breakfast should be ready and available.  Our family went down for breakfast at 6:20 a.m. and they were still in the process of getting the breakfast items out.  When we left the dining room at 6:45 a.m. they still hadn't completed getting the items out.  
+Our family would stay here again if we weren't flying out of Houston in the...Our preferred Best Western Plus in Houston was booked solid so our family decided to give this Best Western Plus a try.  We stayed in a suite which was more than spacious for our family of four.  The room was clean and quiet.  The beds were comfortable and the shower head was at the correct height.  The property was very clean and there were no issues with the internet.  The advantage that this Best Western Plus has is that while it's located within the Houston suburbs it's away from the congestion.  This Best Western Plus does have some room for improvement.  While there weren't many occupants staying here the night we were here the vending machines were empty which necessitated a walk across Route 6 to the convenience store on the opposite side of the road.  A trip across Route 6 might not be dangerous in the evening hours it would probably be more trickier in the daytime.  The big issue was the Continental Breakfast.  When you stated that your Continental Breakfast starts at 6 a.m. that's the time the breakfast should be ready and available.  Our family went down for breakfast at 6:20 a.m. and they were still in the process of getting the breakfast items out.  When we left the dining room at 6:45 a.m. they still hadn't completed getting the items out.  Our family would stay here again if we weren't flying out of Houston in the morning hours.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r174248510-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>174248510</t>
+  </si>
+  <si>
+    <t>Excellent Destination</t>
+  </si>
+  <si>
+    <t>This hotel is conveniently located just 25 minutes south of  the City Of Houston.    I avoided the terrible traffic and toll roads around Houston.  The rooms have always been pristine, the staff friendly, and the complimentary breakfasts were great.  There are several fine restaurants and bars conveniently  located nearby.  I would give this hotel a 4+ star rating out of 5.</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r173888514-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -1230,9 +1927,6 @@
     <t>My daughter recently moved into the dorms at Houston Baptist University. We came down during the Summer for Freshmen orientation and I stayed at Best Western in Manvel, TX. It was a beautiful stay. Very clean, employees were very friendly. This stay was due to moving her into the dorms and after the first excellent stay I decided to stay here again. Told some of the staff that they have a very nice hotel and I'd be staying here alot more over the next 5 years while my daughter is attending school in Houston.</t>
   </si>
   <si>
-    <t>August 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r173171883-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -1260,12 +1954,39 @@
     <t>08/18/2013</t>
   </si>
   <si>
-    <t>Excellent</t>
-  </si>
-  <si>
     <t>This lovely hotel located in the tiny town of Manvel is a hidden treasure. The price is affordable. The staff is helpful and pride themselves on service. The handicap rooms are spacious, clean, and the walk in shower is one of the finest we have had the pleasure to encounter. Breakfast is fresh, hot and with many items to enjoy. This small town is close to the freeway and only a short drive to Houston. Treat yourself to this excellent experience.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r171282544-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>171282544</t>
+  </si>
+  <si>
+    <t>08/07/2013</t>
+  </si>
+  <si>
+    <t>nice hotel</t>
+  </si>
+  <si>
+    <t>staff was friendly and helpful, breakfast was good for what it is. Some biscuits and gravy would be nice but we liked what they had. Shower heads are made for giants or at least people over 6' tall. otherwise a great location. close to three very nice restaurants.walk to one but the others are within a quarter mile.Not a congested area, very rural and quiet. I would recommend this location</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r169920451-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>169920451</t>
+  </si>
+  <si>
+    <t>07/30/2013</t>
+  </si>
+  <si>
+    <t>Business Travel</t>
+  </si>
+  <si>
+    <t>A really great place to stay away from the hustle and bustle of the big city.  Lots of interesting things to see or do within easy driving distance.  Close to interstate highways.  Comfortable bed, great shower, good breakfast and very friendly staff.  What more could you ask for? Except fast internet and you get that here too.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r169837249-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -1281,9 +2002,6 @@
     <t>I visit family that has no room for me to stay with them. This hotel is convenient and has easy access. Can check the internet for work purposes at night when back at hotel. It is slow, but at least it was up every time I needed it. Rooms were clean and refreshed each day with clean towels, etc. Will stay here next time I go visit family in this area of the state.</t>
   </si>
   <si>
-    <t>July 2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r168498523-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -1317,6 +2035,54 @@
     <t>On arrival the Manager was the most dour unsmiling person we have run across in the US, even the staff were unsmiling and while the rooms were clean and quiet, overall we felt unwelcome.Cleaners did not replace coffee each day which created some issues for the caffeine addicts.Won't bother staying any more Best Westerns</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r163349504-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>163349504</t>
+  </si>
+  <si>
+    <t>06/08/2013</t>
+  </si>
+  <si>
+    <t>Could be excellent but ...</t>
+  </si>
+  <si>
+    <t>I wish there was a "good" category, because this motel is 'good' rather than 'very good'.  The bed and pillow quality is great.  Overall, the place looks like a rush construction job (fairly new), but it's not like I'm living there.  We received a room with a gigantic separate kitchen, which I didn't even realize we were getting.  For those who care about a kitchen, there are no supplies, dishes, silverware, or garbage can.  It's so large that it's wasted space, but that's not my problem.  The security lock on the door to the outside doesn't work, and it looks out onto a major highway.  I'm going to report that to them.  The locks on the room doors seem really sturdy.    Bring your own coffee if you are picky, because their brand is pretty bad.  Despite these items, I recommend it.  The price was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>I wish there was a "good" category, because this motel is 'good' rather than 'very good'.  The bed and pillow quality is great.  Overall, the place looks like a rush construction job (fairly new), but it's not like I'm living there.  We received a room with a gigantic separate kitchen, which I didn't even realize we were getting.  For those who care about a kitchen, there are no supplies, dishes, silverware, or garbage can.  It's so large that it's wasted space, but that's not my problem.  The security lock on the door to the outside doesn't work, and it looks out onto a major highway.  I'm going to report that to them.  The locks on the room doors seem really sturdy.    Bring your own coffee if you are picky, because their brand is pretty bad.  Despite these items, I recommend it.  The price was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r159913829-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>159913829</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Comfortable &amp; Centrally Located</t>
+  </si>
+  <si>
+    <t>My family of 4 stayed here during Spring Break 2013, during a brief getaway to see family &amp; sites in the Houston Area. One of the best things the hotel has going for it is the location. You may ask yourself, "where the heck is Manvel, Texas?" and you'll find it's within 30 minutes of most things you'd want to see in the Houston / Clear Lake Area (Downtown, Reliant Stadium, NASA, San Jacinto Monument) and roughly 45 minutes from the beach in Galveston. 
+The hotel staff were friendly and attentive, but every time I went to the desk, they were always hiding in the back. The biggest hiccup during our stay was that the room we had been assigned smelled like smokers has been in there recently, and this was a designated NON-SMOKING room. The manager was apologetic and gave us an upgraded room across the hall at the same price because they were out of rooms in our category. This was generous, but really it is what I would have expected in that situation.
+As far as the hotel itself, everything else was as-expected. The free wi-fi was functioning well, and my kids were able to stream shows via Netflix without any issues. The beds were quite comfortable and we had no other issues with cleanliness of the property. 
+I would stay here again, based on location, and I feel like we got a good value from what...My family of 4 stayed here during Spring Break 2013, during a brief getaway to see family &amp; sites in the Houston Area. One of the best things the hotel has going for it is the location. You may ask yourself, "where the heck is Manvel, Texas?" and you'll find it's within 30 minutes of most things you'd want to see in the Houston / Clear Lake Area (Downtown, Reliant Stadium, NASA, San Jacinto Monument) and roughly 45 minutes from the beach in Galveston. The hotel staff were friendly and attentive, but every time I went to the desk, they were always hiding in the back. The biggest hiccup during our stay was that the room we had been assigned smelled like smokers has been in there recently, and this was a designated NON-SMOKING room. The manager was apologetic and gave us an upgraded room across the hall at the same price because they were out of rooms in our category. This was generous, but really it is what I would have expected in that situation.As far as the hotel itself, everything else was as-expected. The free wi-fi was functioning well, and my kids were able to stream shows via Netflix without any issues. The beds were quite comfortable and we had no other issues with cleanliness of the property. I would stay here again, based on location, and I feel like we got a good value from what we paid.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>My family of 4 stayed here during Spring Break 2013, during a brief getaway to see family &amp; sites in the Houston Area. One of the best things the hotel has going for it is the location. You may ask yourself, "where the heck is Manvel, Texas?" and you'll find it's within 30 minutes of most things you'd want to see in the Houston / Clear Lake Area (Downtown, Reliant Stadium, NASA, San Jacinto Monument) and roughly 45 minutes from the beach in Galveston. 
+The hotel staff were friendly and attentive, but every time I went to the desk, they were always hiding in the back. The biggest hiccup during our stay was that the room we had been assigned smelled like smokers has been in there recently, and this was a designated NON-SMOKING room. The manager was apologetic and gave us an upgraded room across the hall at the same price because they were out of rooms in our category. This was generous, but really it is what I would have expected in that situation.
+As far as the hotel itself, everything else was as-expected. The free wi-fi was functioning well, and my kids were able to stream shows via Netflix without any issues. The beds were quite comfortable and we had no other issues with cleanliness of the property. 
+I would stay here again, based on location, and I feel like we got a good value from what...My family of 4 stayed here during Spring Break 2013, during a brief getaway to see family &amp; sites in the Houston Area. One of the best things the hotel has going for it is the location. You may ask yourself, "where the heck is Manvel, Texas?" and you'll find it's within 30 minutes of most things you'd want to see in the Houston / Clear Lake Area (Downtown, Reliant Stadium, NASA, San Jacinto Monument) and roughly 45 minutes from the beach in Galveston. The hotel staff were friendly and attentive, but every time I went to the desk, they were always hiding in the back. The biggest hiccup during our stay was that the room we had been assigned smelled like smokers has been in there recently, and this was a designated NON-SMOKING room. The manager was apologetic and gave us an upgraded room across the hall at the same price because they were out of rooms in our category. This was generous, but really it is what I would have expected in that situation.As far as the hotel itself, everything else was as-expected. The free wi-fi was functioning well, and my kids were able to stream shows via Netflix without any issues. The beds were quite comfortable and we had no other issues with cleanliness of the property. I would stay here again, based on location, and I feel like we got a good value from what we paid.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r157211308-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
   </si>
   <si>
@@ -1350,9 +2116,6 @@
     <t>Stayed for four nights while on a get-a-way vacation trip. It is located with-in reasonable driving distance to both Houston and Galveston. The room we had was "very clean", big and roomy, high ceilings /ceiling fan , along with frig. / microwave,  We were there in March, used the heater and it was very quiet. The king bed was comfy and provided a good nights sleep after being out and about most of the day. The staff we dealt with were very nice, friendly &amp; helpful.The continental breakfast was fresh and above par for that type of breakfast, good way to start the day.The motel is located in a clean/ safe area.Did not try the close by Tex-Mex rest., but did have a good lunch / beer at the "Burger Barn" just down the road.It was a very good value and would stay there again if in the area.From a Retired coupleMoreShow less</t>
   </si>
   <si>
-    <t>March 2013</t>
-  </si>
-  <si>
     <t>Stayed for four nights while on a get-a-way vacation trip. It is located with-in reasonable driving distance to both Houston and Galveston. The room we had was "very clean", big and roomy, high ceilings /ceiling fan , along with frig. / microwave,  We were there in March, used the heater and it was very quiet. The king bed was comfy and provided a good nights sleep after being out and about most of the day. The staff we dealt with were very nice, friendly &amp; helpful.The continental breakfast was fresh and above par for that type of breakfast, good way to start the day.The motel is located in a clean/ safe area.Did not try the close by Tex-Mex rest., but did have a good lunch / beer at the "Burger Barn" just down the road.It was a very good value and would stay there again if in the area.From a Retired coupleMore</t>
   </si>
   <si>
@@ -1372,6 +2135,55 @@
   </si>
   <si>
     <t>The staff was awful. My room was covered in bees they kept coming in my room everyday the management would not give me another rm they didnt have one like mine available and wanted give me a smaller room wouldnt upgrade me even though i paid for two weeks i also had birds in my stove vent. I should have stayed outside it would have been better than my stay. Also my neighbors up stairs woke my kids up every night being loud n when i called owners every night they did nothing so if u are a familyb looking to stay here i advise to keep looking the.rates r to high for the crap u have to put up with.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r137390958-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>137390958</t>
+  </si>
+  <si>
+    <t>08/16/2012</t>
+  </si>
+  <si>
+    <t>Overall a lovely hotel with great service</t>
+  </si>
+  <si>
+    <t>This was the best stay. Staff was very friendly and helpful. I highly recommend this hotel when you are in this area. Rooms have ceiling fan, computer desk and are very well maintained. Have business center, fitness room, guest laundry, and hot delicious breakfast. I peeked at the indoor pool with spa, and it looks very clean and well maintained.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r134833350-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>134833350</t>
+  </si>
+  <si>
+    <t>07/19/2012</t>
+  </si>
+  <si>
+    <t>Struggled Over Average and Poor Rating</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel twice. Once in June. Once in July. 
+The rooms are spacious. They have ceiling fans! My single room had a couch, chair, and TWO ceiling fans. Not only are the rooms spacious...but they are nicely decorated. The bed was comfortable, but the linens were lacking. I asked for an extra blanket and I was treated with suspicion by the owner of the hotel.
+The hot breakfast was the same each day. Scrambled eggs and sausage links along with the standard Continental fare. I had to wake up the owner one morning to get breakfast ready. He lied to me and said breakfast would be ready in a few minutes. It was a lot longer than that. I woke him up to ask for a "Do Not Disturb" sign because I work nights and did not want housekeeping during the day.
+The Internet service was poor at best. 
+We had a problem with our company credit card. Instead of calling our rooms or our cell phones...they locked us out of our rooms. I've had problems before. Most of the hotels call us on the house phone to get things right. This guy locked out of my room away from my belongings without trying to contact me first. I did not care for it.
+The bright spot of the place is Lisa. She is the customer service rep during the day. She checked me in twice. She...I stayed at this hotel twice. Once in June. Once in July. The rooms are spacious. They have ceiling fans! My single room had a couch, chair, and TWO ceiling fans. Not only are the rooms spacious...but they are nicely decorated. The bed was comfortable, but the linens were lacking. I asked for an extra blanket and I was treated with suspicion by the owner of the hotel.The hot breakfast was the same each day. Scrambled eggs and sausage links along with the standard Continental fare. I had to wake up the owner one morning to get breakfast ready. He lied to me and said breakfast would be ready in a few minutes. It was a lot longer than that. I woke him up to ask for a "Do Not Disturb" sign because I work nights and did not want housekeeping during the day.The Internet service was poor at best. We had a problem with our company credit card. Instead of calling our rooms or our cell phones...they locked us out of our rooms. I've had problems before. Most of the hotels call us on the house phone to get things right. This guy locked out of my room away from my belongings without trying to contact me first. I did not care for it.The bright spot of the place is Lisa. She is the customer service rep during the day. She checked me in twice. She ROCKS~ I am giving the "service a four rating" based on Lisa alone.So...the hotel is nice. I liked my room. The Internet was not good. The breakfast sucked. The location is not the greatest in the world even though you can walk to a convenience store and a medicre restaurant next door. The husband and wife owner team need to take a course on "how to treat people like you would want to be treated" or "how to improve your customer service skills."I would not recommend this hotel based on the way I was treated during my stay. I've even given myself a "cooling off period" to see how I really feel. I stayed there twice. I can honestly say I would never stay there again based on the attitudes of the owners even though I really liked the rooms.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel twice. Once in June. Once in July. 
+The rooms are spacious. They have ceiling fans! My single room had a couch, chair, and TWO ceiling fans. Not only are the rooms spacious...but they are nicely decorated. The bed was comfortable, but the linens were lacking. I asked for an extra blanket and I was treated with suspicion by the owner of the hotel.
+The hot breakfast was the same each day. Scrambled eggs and sausage links along with the standard Continental fare. I had to wake up the owner one morning to get breakfast ready. He lied to me and said breakfast would be ready in a few minutes. It was a lot longer than that. I woke him up to ask for a "Do Not Disturb" sign because I work nights and did not want housekeeping during the day.
+The Internet service was poor at best. 
+We had a problem with our company credit card. Instead of calling our rooms or our cell phones...they locked us out of our rooms. I've had problems before. Most of the hotels call us on the house phone to get things right. This guy locked out of my room away from my belongings without trying to contact me first. I did not care for it.
+The bright spot of the place is Lisa. She is the customer service rep during the day. She checked me in twice. She...I stayed at this hotel twice. Once in June. Once in July. The rooms are spacious. They have ceiling fans! My single room had a couch, chair, and TWO ceiling fans. Not only are the rooms spacious...but they are nicely decorated. The bed was comfortable, but the linens were lacking. I asked for an extra blanket and I was treated with suspicion by the owner of the hotel.The hot breakfast was the same each day. Scrambled eggs and sausage links along with the standard Continental fare. I had to wake up the owner one morning to get breakfast ready. He lied to me and said breakfast would be ready in a few minutes. It was a lot longer than that. I woke him up to ask for a "Do Not Disturb" sign because I work nights and did not want housekeeping during the day.The Internet service was poor at best. We had a problem with our company credit card. Instead of calling our rooms or our cell phones...they locked us out of our rooms. I've had problems before. Most of the hotels call us on the house phone to get things right. This guy locked out of my room away from my belongings without trying to contact me first. I did not care for it.The bright spot of the place is Lisa. She is the customer service rep during the day. She checked me in twice. She ROCKS~ I am giving the "service a four rating" based on Lisa alone.So...the hotel is nice. I liked my room. The Internet was not good. The breakfast sucked. The location is not the greatest in the world even though you can walk to a convenience store and a medicre restaurant next door. The husband and wife owner team need to take a course on "how to treat people like you would want to be treated" or "how to improve your customer service skills."I would not recommend this hotel based on the way I was treated during my stay. I've even given myself a "cooling off period" to see how I really feel. I stayed there twice. I can honestly say I would never stay there again based on the attitudes of the owners even though I really liked the rooms.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r134561816-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
@@ -1431,6 +2243,52 @@
   </si>
   <si>
     <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r101394564-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>101394564</t>
+  </si>
+  <si>
+    <t>03/24/2011</t>
+  </si>
+  <si>
+    <t>Comfortable and Reasonable but Remote</t>
+  </si>
+  <si>
+    <t>I found out this hotel opened in May 2009 as a Best Western Plus (intermediate grade) property.  Everything is new, with all the amenities for business or leisure.  The location on TX Highway 6 is relatively remote between TX 288 freeway and TX 35 in Alvin.  There are other hotels in Alvin, some new, but this hotel will beat them on price.
+We booked a double king, which I have never seen anywhere else.  This was a real perk traveling with a family and made sleeping very comfortable.  The room was right sized, not too big or small.  There was a desk &amp; chair, microwave, refrigerator, and sitting chair with plenty of space for suitcases.  There was also a ceiling fan overhead for those who prefer some air movement instead of relying strictly on the competent AC unit.  The bathroom was very nice, done in tile and synthetic granite.  There was a phone jack in the bathroom which is something used to see in luxury hotels 30 years ago.  The fitness room is small but nicely equipped with a treadmill and bowflex unit but you have to know how to set up the pulleys as there are no directions included.  The hot breakfast was average but there are enough items to choose from and everybody should find something they like.
+There are limited services at this location as this section of Highway 6 is still relatively undeveloped.  To the west...I found out this hotel opened in May 2009 as a Best Western Plus (intermediate grade) property.  Everything is new, with all the amenities for business or leisure.  The location on TX Highway 6 is relatively remote between TX 288 freeway and TX 35 in Alvin.  There are other hotels in Alvin, some new, but this hotel will beat them on price.We booked a double king, which I have never seen anywhere else.  This was a real perk traveling with a family and made sleeping very comfortable.  The room was right sized, not too big or small.  There was a desk &amp; chair, microwave, refrigerator, and sitting chair with plenty of space for suitcases.  There was also a ceiling fan overhead for those who prefer some air movement instead of relying strictly on the competent AC unit.  The bathroom was very nice, done in tile and synthetic granite.  There was a phone jack in the bathroom which is something used to see in luxury hotels 30 years ago.  The fitness room is small but nicely equipped with a treadmill and bowflex unit but you have to know how to set up the pulleys as there are no directions included.  The hot breakfast was average but there are enough items to choose from and everybody should find something they like.There are limited services at this location as this section of Highway 6 is still relatively undeveloped.  To the west about a mile there are convenience stores, gasoline, and fast food at TX 288.  To the east is the small village of Manvel which has very little, but more convenience, gas, and a car wash close by.  About 10 miles further is Alvin which has many services and some restaurants.There is a concrete mix plant just NE but not directly adjacent to the property.  The noise level was low, but constant during working hours and in the early morning.  I did not see any dust issues outside in the parking lot.The one negative was a strong odor of mildew in the second floor hallway.  It was not obvious where this was coming from but the room smelled fresh and clean.  I notified the front desk about the issue.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>I found out this hotel opened in May 2009 as a Best Western Plus (intermediate grade) property.  Everything is new, with all the amenities for business or leisure.  The location on TX Highway 6 is relatively remote between TX 288 freeway and TX 35 in Alvin.  There are other hotels in Alvin, some new, but this hotel will beat them on price.
+We booked a double king, which I have never seen anywhere else.  This was a real perk traveling with a family and made sleeping very comfortable.  The room was right sized, not too big or small.  There was a desk &amp; chair, microwave, refrigerator, and sitting chair with plenty of space for suitcases.  There was also a ceiling fan overhead for those who prefer some air movement instead of relying strictly on the competent AC unit.  The bathroom was very nice, done in tile and synthetic granite.  There was a phone jack in the bathroom which is something used to see in luxury hotels 30 years ago.  The fitness room is small but nicely equipped with a treadmill and bowflex unit but you have to know how to set up the pulleys as there are no directions included.  The hot breakfast was average but there are enough items to choose from and everybody should find something they like.
+There are limited services at this location as this section of Highway 6 is still relatively undeveloped.  To the west...I found out this hotel opened in May 2009 as a Best Western Plus (intermediate grade) property.  Everything is new, with all the amenities for business or leisure.  The location on TX Highway 6 is relatively remote between TX 288 freeway and TX 35 in Alvin.  There are other hotels in Alvin, some new, but this hotel will beat them on price.We booked a double king, which I have never seen anywhere else.  This was a real perk traveling with a family and made sleeping very comfortable.  The room was right sized, not too big or small.  There was a desk &amp; chair, microwave, refrigerator, and sitting chair with plenty of space for suitcases.  There was also a ceiling fan overhead for those who prefer some air movement instead of relying strictly on the competent AC unit.  The bathroom was very nice, done in tile and synthetic granite.  There was a phone jack in the bathroom which is something used to see in luxury hotels 30 years ago.  The fitness room is small but nicely equipped with a treadmill and bowflex unit but you have to know how to set up the pulleys as there are no directions included.  The hot breakfast was average but there are enough items to choose from and everybody should find something they like.There are limited services at this location as this section of Highway 6 is still relatively undeveloped.  To the west about a mile there are convenience stores, gasoline, and fast food at TX 288.  To the east is the small village of Manvel which has very little, but more convenience, gas, and a car wash close by.  About 10 miles further is Alvin which has many services and some restaurants.There is a concrete mix plant just NE but not directly adjacent to the property.  The noise level was low, but constant during working hours and in the early morning.  I did not see any dust issues outside in the parking lot.The one negative was a strong odor of mildew in the second floor hallway.  It was not obvious where this was coming from but the room smelled fresh and clean.  I notified the front desk about the issue.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56226-d1486005-r51079805-Best_Western_Plus_Manvel_Inn_Suites-Manvel_Texas.html</t>
+  </si>
+  <si>
+    <t>51079805</t>
+  </si>
+  <si>
+    <t>12/11/2009</t>
+  </si>
+  <si>
+    <t>Great hotel between Houston and Galveston</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the Best Western Manvel Inn &amp; Suites the night of Thanksgiving and the night after.  We were going to visit Galveston the day after Thanksgiving and then pick up my mother in Houston the next day.  We found a much better deal at this location than we could in Galveston.  We stayed in a king room with a kitchenette--it had a small refrigerator, a cooktop and a microwave.  I found it strange that the cabinets of the kitchenette had nothing in them--so if you want to cook at this hotel, be sure and bring your own equipment.  The bed was very comfortable and the bathroom was nicely equipped.  There was an adequate variety of breakfast foods, but they were not replenished very well (this could have been due to short staffing over the holiday).  Otherwise, the staff was very friendly and helpful--they directed us to nearby Pearland to find some food, since the local restaurants were closed on Thanksgiving.  On Friday after we returned from Galveston, we had dinner at the Mexican restaurant next door to the hotel, and the food was delicious.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2009</t>
+  </si>
+  <si>
+    <t>My husband and I stayed at the Best Western Manvel Inn &amp; Suites the night of Thanksgiving and the night after.  We were going to visit Galveston the day after Thanksgiving and then pick up my mother in Houston the next day.  We found a much better deal at this location than we could in Galveston.  We stayed in a king room with a kitchenette--it had a small refrigerator, a cooktop and a microwave.  I found it strange that the cabinets of the kitchenette had nothing in them--so if you want to cook at this hotel, be sure and bring your own equipment.  The bed was very comfortable and the bathroom was nicely equipped.  There was an adequate variety of breakfast foods, but they were not replenished very well (this could have been due to short staffing over the holiday).  Otherwise, the staff was very friendly and helpful--they directed us to nearby Pearland to find some food, since the local restaurants were closed on Thanksgiving.  On Friday after we returned from Galveston, we had dinner at the Mexican restaurant next door to the hotel, and the food was delicious.More</t>
   </si>
 </sst>
 </file>
@@ -1973,22 +2831,12 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
-      <c r="S2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -2032,20 +2880,30 @@
         <v>58</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
         <v>53</v>
       </c>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
       <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -2068,48 +2926,58 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>59</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" t="s">
-        <v>63</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>64</v>
-      </c>
       <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P4" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>5</v>
+      </c>
+      <c r="R4" t="n">
+        <v>5</v>
+      </c>
+      <c r="S4" t="n">
+        <v>5</v>
+      </c>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -2125,58 +2993,48 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>66</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>67</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>68</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>69</v>
       </c>
-      <c r="L5" t="s">
-        <v>70</v>
-      </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
-      </c>
-      <c r="P5" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -2192,34 +3050,34 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>71</v>
+      </c>
+      <c r="J6" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>74</v>
       </c>
-      <c r="J6" t="s">
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
         <v>75</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>76</v>
-      </c>
-      <c r="L6" t="s">
-        <v>77</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>78</v>
-      </c>
-      <c r="O6" t="s">
-        <v>79</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2233,7 +3091,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -2249,56 +3107,58 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
         <v>80</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>81</v>
       </c>
-      <c r="J7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L7" t="s">
-        <v>84</v>
-      </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
       <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s"/>
-      <c r="S7" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
-        <v>86</v>
-      </c>
-      <c r="X7" t="s">
-        <v>87</v>
-      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -2314,7 +3174,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2323,49 +3183,49 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="O8" t="s">
         <v>53</v>
       </c>
-      <c r="P8" t="s"/>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
       <c r="Q8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R8" t="n">
         <v>3</v>
       </c>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>3</v>
+      </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>95</v>
-      </c>
-      <c r="X8" t="s">
-        <v>96</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9">
@@ -2381,7 +3241,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2390,53 +3250,39 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="O9" t="s">
-        <v>72</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>4</v>
-      </c>
-      <c r="S9" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>3</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>104</v>
-      </c>
-      <c r="X9" t="s">
-        <v>105</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
@@ -2452,7 +3298,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>94</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2461,53 +3307,49 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>112</v>
-      </c>
-      <c r="X10" t="s">
-        <v>113</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11">
@@ -2523,7 +3365,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2532,49 +3374,39 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
-      <c r="R11" t="n">
-        <v>4</v>
-      </c>
-      <c r="S11" t="n">
-        <v>5</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12">
@@ -2590,7 +3422,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2599,53 +3431,47 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="J12" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="K12" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="O12" t="s">
-        <v>65</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="n">
-        <v>5</v>
-      </c>
-      <c r="R12" t="n">
-        <v>5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="X12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="Y12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
@@ -2661,7 +3487,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2670,53 +3496,49 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="O13" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S13" t="n">
         <v>4</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>126</v>
-      </c>
-      <c r="X13" t="s">
-        <v>127</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -2732,7 +3554,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2741,31 +3563,35 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="M14" t="n">
         <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="O14" t="s">
         <v>53</v>
       </c>
-      <c r="P14" t="s"/>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="n">
         <v>5</v>
       </c>
-      <c r="R14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
       <c r="S14" t="n">
         <v>5</v>
       </c>
@@ -2776,10 +3602,14 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>128</v>
+      </c>
+      <c r="X14" t="s">
+        <v>129</v>
+      </c>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -2795,7 +3625,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2804,31 +3634,33 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>147</v>
+        <v>122</v>
       </c>
       <c r="O15" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
-        <v>4</v>
-      </c>
-      <c r="R15" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
       <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
@@ -2837,10 +3669,14 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>128</v>
+      </c>
+      <c r="X15" t="s">
+        <v>129</v>
+      </c>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
@@ -2856,7 +3692,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2865,49 +3701,53 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="J16" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="M16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="O16" t="s">
-        <v>154</v>
+        <v>100</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>143</v>
+      </c>
+      <c r="X16" t="s">
+        <v>144</v>
+      </c>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17">
@@ -2923,7 +3763,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2932,49 +3772,53 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="M17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="O17" t="s">
         <v>53</v>
       </c>
       <c r="P17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>151</v>
+      </c>
+      <c r="X17" t="s">
+        <v>152</v>
+      </c>
       <c r="Y17" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18">
@@ -2990,7 +3834,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2999,49 +3843,53 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="J18" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="O18" t="s">
         <v>53</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>128</v>
+      </c>
+      <c r="X18" t="s">
+        <v>129</v>
+      </c>
       <c r="Y18" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19">
@@ -3057,7 +3905,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3066,41 +3914,41 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="J19" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" t="s">
         <v>163</v>
       </c>
-      <c r="K19" t="s">
-        <v>169</v>
-      </c>
       <c r="L19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>166</v>
+        <v>93</v>
       </c>
       <c r="O19" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3108,7 +3956,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20">
@@ -3124,7 +3972,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3133,39 +3981,49 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="J20" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="K20" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="L20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="O20" t="s">
-        <v>154</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
@@ -3181,7 +4039,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3190,28 +4048,28 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="J21" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="K21" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="O21" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
         <v>5</v>
@@ -3229,10 +4087,14 @@
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>175</v>
+      </c>
+      <c r="X21" t="s">
+        <v>176</v>
+      </c>
       <c r="Y21" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="22">
@@ -3248,40 +4110,44 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
+        <v>178</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K22" t="s">
+        <v>181</v>
+      </c>
+      <c r="L22" t="s">
+        <v>182</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
         <v>183</v>
       </c>
-      <c r="G22" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" t="s">
-        <v>184</v>
-      </c>
-      <c r="J22" t="s">
-        <v>185</v>
-      </c>
-      <c r="K22" t="s">
-        <v>186</v>
-      </c>
-      <c r="L22" t="s">
-        <v>187</v>
-      </c>
-      <c r="M22" t="n">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>176</v>
-      </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
       <c r="S22" t="n">
         <v>4</v>
       </c>
@@ -3292,10 +4158,14 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>175</v>
+      </c>
+      <c r="X22" t="s">
+        <v>176</v>
+      </c>
       <c r="Y22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
@@ -3311,54 +4181,62 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
+        <v>185</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>186</v>
+      </c>
+      <c r="J23" t="s">
+        <v>187</v>
+      </c>
+      <c r="K23" t="s">
         <v>188</v>
       </c>
-      <c r="G23" t="s">
-        <v>46</v>
-      </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="L23" t="s">
         <v>189</v>
       </c>
-      <c r="J23" t="s">
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>190</v>
       </c>
-      <c r="K23" t="s">
-        <v>191</v>
-      </c>
-      <c r="L23" t="s">
-        <v>192</v>
-      </c>
-      <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>176</v>
-      </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="P23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>191</v>
+      </c>
+      <c r="X23" t="s">
+        <v>192</v>
+      </c>
       <c r="Y23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24">
@@ -3374,7 +4252,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3383,45 +4261,39 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="K24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="L24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="P24" t="s"/>
-      <c r="Q24" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>4</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25">
@@ -3461,17 +4333,23 @@
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="O25" t="s">
         <v>53</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
       <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
@@ -3494,7 +4372,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3503,32 +4381,32 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="J26" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="P26" t="s"/>
-      <c r="Q26" t="s"/>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
       <c r="R26" t="s"/>
-      <c r="S26" t="n">
-        <v>1</v>
-      </c>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
         <v>4</v>
@@ -3555,7 +4433,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3564,37 +4442,37 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="J27" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K27" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="O27" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="P27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -3606,7 +4484,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28">
@@ -3622,7 +4500,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3631,35 +4509,41 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="J28" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K28" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L28" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
-      </c>
-      <c r="P28" t="s"/>
-      <c r="Q28" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
       <c r="R28" t="n">
-        <v>3</v>
-      </c>
-      <c r="S28" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -3667,7 +4551,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="29">
@@ -3683,7 +4567,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3692,49 +4576,39 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="J29" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K29" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L29" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="O29" t="s">
-        <v>65</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
-      <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="n">
-        <v>5</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="30">
@@ -3750,7 +4624,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3759,37 +4633,41 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
+        <v>232</v>
+      </c>
+      <c r="J30" t="s">
+        <v>233</v>
+      </c>
+      <c r="K30" t="s">
+        <v>234</v>
+      </c>
+      <c r="L30" t="s">
+        <v>235</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
         <v>229</v>
-      </c>
-      <c r="J30" t="s">
-        <v>230</v>
-      </c>
-      <c r="K30" t="s">
-        <v>231</v>
-      </c>
-      <c r="L30" t="s">
-        <v>232</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3</v>
-      </c>
-      <c r="N30" t="s">
-        <v>233</v>
       </c>
       <c r="O30" t="s">
         <v>53</v>
       </c>
-      <c r="P30" t="s"/>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
       <c r="Q30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R30" t="n">
         <v>5</v>
       </c>
-      <c r="S30" t="s"/>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -3797,7 +4675,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
@@ -3813,7 +4691,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3822,35 +4700,41 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="J31" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K31" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L31" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="O31" t="s">
-        <v>65</v>
-      </c>
-      <c r="P31" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P31" t="n">
+        <v>2</v>
+      </c>
       <c r="Q31" t="n">
-        <v>5</v>
-      </c>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3874,7 +4758,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3883,10 +4767,10 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J32" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="K32" t="s">
         <v>244</v>
@@ -3895,29 +4779,29 @@
         <v>245</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3941,43 +4825,43 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
+        <v>246</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
         <v>247</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>248</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>249</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>250</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>251</v>
       </c>
-      <c r="M33" t="n">
-        <v>4</v>
-      </c>
-      <c r="N33" t="s">
-        <v>252</v>
-      </c>
       <c r="O33" t="s">
-        <v>65</v>
-      </c>
-      <c r="P33" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q33" t="s"/>
-      <c r="R33" t="n">
-        <v>3</v>
-      </c>
-      <c r="S33" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="n">
+        <v>5</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
         <v>5</v>
@@ -3988,7 +4872,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34">
@@ -4004,37 +4888,37 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
+        <v>253</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
         <v>254</v>
       </c>
-      <c r="G34" t="s">
-        <v>46</v>
-      </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>255</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>256</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>257</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
         <v>258</v>
       </c>
-      <c r="M34" t="n">
-        <v>5</v>
-      </c>
-      <c r="N34" t="s">
-        <v>252</v>
-      </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q34" t="n">
         <v>5</v>
@@ -4055,7 +4939,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="35">
@@ -4092,37 +4976,27 @@
         <v>263</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
-      </c>
-      <c r="P35" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>1</v>
-      </c>
-      <c r="R35" t="n">
-        <v>2</v>
-      </c>
-      <c r="S35" t="n">
-        <v>1</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>1</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36">
@@ -4138,42 +5012,50 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
+        <v>264</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
         <v>265</v>
       </c>
-      <c r="G36" t="s">
-        <v>46</v>
-      </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>266</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>267</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>268</v>
       </c>
-      <c r="L36" t="s">
-        <v>269</v>
-      </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="O36" t="s">
-        <v>53</v>
-      </c>
-      <c r="P36" t="s"/>
-      <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
-      <c r="S36" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="P36" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -4218,29 +5100,25 @@
         <v>274</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="O37" t="s">
         <v>53</v>
       </c>
       <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
         <v>3</v>
       </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -4264,44 +5142,58 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>275</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
         <v>276</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>277</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>278</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>279</v>
       </c>
-      <c r="L38" t="s">
-        <v>280</v>
-      </c>
       <c r="M38" t="n">
-        <v>2</v>
-      </c>
-      <c r="N38" t="s"/>
-      <c r="O38" t="s"/>
-      <c r="P38" t="s"/>
-      <c r="Q38" t="s"/>
-      <c r="R38" t="s"/>
-      <c r="S38" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>258</v>
+      </c>
+      <c r="O38" t="s">
+        <v>76</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
       <c r="T38" t="s"/>
-      <c r="U38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
@@ -4317,46 +5209,50 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
+        <v>280</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
         <v>281</v>
       </c>
-      <c r="G39" t="s">
-        <v>46</v>
-      </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>282</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>283</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>284</v>
       </c>
-      <c r="L39" t="s">
-        <v>285</v>
-      </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N39" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" t="s"/>
+        <v>100</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3</v>
+      </c>
       <c r="Q39" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R39" t="n">
         <v>4</v>
       </c>
-      <c r="S39" t="s"/>
+      <c r="S39" t="n">
+        <v>2</v>
+      </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4364,7 +5260,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="40">
@@ -4380,44 +5276,40 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
+        <v>285</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>286</v>
+      </c>
+      <c r="J40" t="s">
         <v>287</v>
       </c>
-      <c r="G40" t="s">
-        <v>46</v>
-      </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="K40" t="s">
         <v>288</v>
       </c>
-      <c r="J40" t="s">
+      <c r="L40" t="s">
         <v>289</v>
       </c>
-      <c r="K40" t="s">
-        <v>290</v>
-      </c>
-      <c r="L40" t="s">
-        <v>291</v>
-      </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="O40" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
       <c r="S40" t="n">
         <v>5</v>
       </c>
@@ -4431,7 +5323,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41">
@@ -4447,41 +5339,43 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
+        <v>290</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>291</v>
+      </c>
+      <c r="J41" t="s">
+        <v>292</v>
+      </c>
+      <c r="K41" t="s">
         <v>293</v>
       </c>
-      <c r="G41" t="s">
-        <v>46</v>
-      </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
-      <c r="I41" t="s">
+      <c r="L41" t="s">
         <v>294</v>
       </c>
-      <c r="J41" t="s">
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
         <v>295</v>
       </c>
-      <c r="K41" t="s">
-        <v>296</v>
-      </c>
-      <c r="L41" t="s">
-        <v>297</v>
-      </c>
-      <c r="M41" t="n">
-        <v>4</v>
-      </c>
-      <c r="N41" t="s">
-        <v>298</v>
-      </c>
       <c r="O41" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
         <v>4</v>
       </c>
       <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
         <v>4</v>
@@ -4492,7 +5386,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="42">
@@ -4508,58 +5402,48 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
+        <v>296</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>297</v>
+      </c>
+      <c r="J42" t="s">
+        <v>298</v>
+      </c>
+      <c r="K42" t="s">
+        <v>299</v>
+      </c>
+      <c r="L42" t="s">
         <v>300</v>
       </c>
-      <c r="G42" t="s">
-        <v>46</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" t="s">
-        <v>301</v>
-      </c>
-      <c r="J42" t="s">
-        <v>302</v>
-      </c>
-      <c r="K42" t="s">
-        <v>303</v>
-      </c>
-      <c r="L42" t="s">
-        <v>304</v>
-      </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="O42" t="s">
         <v>53</v>
       </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
-      <c r="R42" t="n">
-        <v>5</v>
-      </c>
-      <c r="S42" t="n">
-        <v>5</v>
-      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>4</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43">
@@ -4575,7 +5459,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4584,37 +5468,37 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="J43" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K43" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="L43" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="O43" t="s">
-        <v>72</v>
+        <v>217</v>
       </c>
       <c r="P43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
@@ -4626,7 +5510,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44">
@@ -4642,7 +5526,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4651,37 +5535,41 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="J44" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="K44" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="L44" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
-      </c>
-      <c r="P44" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
       <c r="Q44" t="n">
-        <v>4</v>
-      </c>
-      <c r="R44" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
       <c r="S44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4689,7 +5577,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="45">
@@ -4705,7 +5593,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4714,41 +5602,35 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="J45" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="K45" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="L45" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>324</v>
+        <v>295</v>
       </c>
       <c r="O45" t="s">
-        <v>79</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -4756,7 +5638,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="46">
@@ -4772,7 +5654,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4781,37 +5663,37 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="J46" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K46" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="L46" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="O46" t="s">
-        <v>154</v>
+        <v>217</v>
       </c>
       <c r="P46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
@@ -4823,7 +5705,7 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="47">
@@ -4839,7 +5721,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4848,39 +5730,35 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="J47" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="K47" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="L47" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="O47" t="s">
-        <v>154</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
       <c r="R47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
@@ -4888,7 +5766,7 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="48">
@@ -4904,7 +5782,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4913,41 +5791,35 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="J48" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="K48" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="L48" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N48" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="O48" t="s">
         <v>53</v>
       </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -4955,7 +5827,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
     </row>
     <row r="49">
@@ -4971,7 +5843,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4980,34 +5852,34 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="J49" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="K49" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="L49" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="M49" t="n">
         <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>286</v>
+        <v>334</v>
       </c>
       <c r="O49" t="s">
         <v>53</v>
       </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
-      <c r="R49" t="s"/>
-      <c r="S49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
         <v>5</v>
@@ -5018,7 +5890,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="50">
@@ -5034,7 +5906,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5043,25 +5915,25 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="J50" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="K50" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="L50" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="O50" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="P50" t="n">
         <v>5</v>
@@ -5085,7 +5957,7 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="51">
@@ -5101,7 +5973,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5110,37 +5982,37 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="J51" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="K51" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="L51" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
-      </c>
-      <c r="N51" t="s"/>
-      <c r="O51" t="s"/>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>350</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
       <c r="Q51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R51" t="n">
         <v>5</v>
       </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
@@ -5148,7 +6020,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52">
@@ -5164,7 +6036,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5173,37 +6045,35 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="J52" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="K52" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="L52" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="M52" t="n">
-        <v>3</v>
-      </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
-      <c r="P52" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>350</v>
+      </c>
+      <c r="O52" t="s">
+        <v>76</v>
+      </c>
+      <c r="P52" t="s"/>
       <c r="Q52" t="n">
-        <v>4</v>
-      </c>
-      <c r="R52" t="n">
-        <v>3</v>
-      </c>
-      <c r="S52" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
@@ -5211,7 +6081,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53">
@@ -5227,7 +6097,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5236,28 +6106,28 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="J53" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="K53" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="L53" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="M53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N53" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="O53" t="s">
-        <v>154</v>
+        <v>53</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="n">
         <v>4</v>
@@ -5278,7 +6148,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
     </row>
     <row r="54">
@@ -5294,7 +6164,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5303,27 +6173,31 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="J54" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K54" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="L54" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
-      </c>
-      <c r="N54" t="s"/>
-      <c r="O54" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>363</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
       <c r="P54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R54" t="n">
         <v>4</v>
@@ -5341,7 +6215,7 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="55">
@@ -5357,7 +6231,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5366,22 +6240,22 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="J55" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="K55" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="L55" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="O55" t="s">
         <v>53</v>
@@ -5408,7 +6282,7 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
     </row>
     <row r="56">
@@ -5424,7 +6298,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5433,41 +6307,37 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="J56" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="K56" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="L56" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="O56" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="P56" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
       <c r="R56" t="n">
-        <v>4</v>
-      </c>
-      <c r="S56" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
@@ -5475,7 +6345,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="57">
@@ -5491,7 +6361,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5500,25 +6370,25 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="J57" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="K57" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="L57" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="O57" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="P57" t="n">
         <v>5</v>
@@ -5527,7 +6397,7 @@
         <v>5</v>
       </c>
       <c r="R57" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S57" t="n">
         <v>5</v>
@@ -5542,7 +6412,7 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58">
@@ -5558,50 +6428,46 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
+        <v>388</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>389</v>
+      </c>
+      <c r="J58" t="s">
+        <v>390</v>
+      </c>
+      <c r="K58" t="s">
+        <v>391</v>
+      </c>
+      <c r="L58" t="s">
+        <v>392</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
         <v>393</v>
       </c>
-      <c r="G58" t="s">
-        <v>46</v>
-      </c>
-      <c r="H58" t="s">
-        <v>47</v>
-      </c>
-      <c r="I58" t="s">
-        <v>394</v>
-      </c>
-      <c r="J58" t="s">
-        <v>395</v>
-      </c>
-      <c r="K58" t="s">
-        <v>396</v>
-      </c>
-      <c r="L58" t="s">
-        <v>397</v>
-      </c>
-      <c r="M58" t="n">
-        <v>4</v>
-      </c>
-      <c r="N58" t="s">
-        <v>398</v>
-      </c>
       <c r="O58" t="s">
-        <v>154</v>
+        <v>76</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
       </c>
       <c r="Q58" t="n">
-        <v>4</v>
-      </c>
-      <c r="R58" t="n">
-        <v>3</v>
-      </c>
-      <c r="S58" t="n">
-        <v>5</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5609,7 +6475,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
     </row>
     <row r="59">
@@ -5625,7 +6491,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5634,25 +6500,25 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="J59" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="K59" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="L59" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="P59" t="n">
         <v>5</v>
@@ -5676,7 +6542,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="60">
@@ -5692,7 +6558,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5701,41 +6567,41 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="J60" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="K60" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L60" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="O60" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="S60" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
@@ -5743,7 +6609,7 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="61">
@@ -5759,7 +6625,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5768,41 +6634,33 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="J61" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="K61" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="L61" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="M61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
       <c r="O61" t="s">
-        <v>65</v>
-      </c>
-      <c r="P61" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>5</v>
-      </c>
-      <c r="R61" t="n">
-        <v>5</v>
-      </c>
-      <c r="S61" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
@@ -5810,7 +6668,7 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="62">
@@ -5826,7 +6684,7 @@
         <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G62" t="s">
         <v>46</v>
@@ -5835,41 +6693,41 @@
         <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="J62" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="K62" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="L62" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="M62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="O62" t="s">
         <v>53</v>
       </c>
       <c r="P62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q62" t="n">
         <v>5</v>
       </c>
       <c r="R62" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S62" t="n">
         <v>5</v>
       </c>
       <c r="T62" t="s"/>
       <c r="U62" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V62" t="n">
         <v>0</v>
@@ -5877,7 +6735,7 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
     </row>
     <row r="63">
@@ -5893,7 +6751,7 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G63" t="s">
         <v>46</v>
@@ -5902,41 +6760,35 @@
         <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="J63" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="K63" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="L63" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="M63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="O63" t="s">
-        <v>72</v>
-      </c>
-      <c r="P63" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q63" t="n">
-        <v>4</v>
-      </c>
-      <c r="R63" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
       <c r="S63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
@@ -5944,7 +6796,7 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="64">
@@ -5960,7 +6812,7 @@
         <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="G64" t="s">
         <v>46</v>
@@ -5969,41 +6821,35 @@
         <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="J64" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="K64" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="L64" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="M64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N64" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="O64" t="s">
-        <v>79</v>
-      </c>
-      <c r="P64" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P64" t="s"/>
       <c r="Q64" t="n">
-        <v>4</v>
-      </c>
-      <c r="R64" t="n">
-        <v>5</v>
-      </c>
-      <c r="S64" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
@@ -6011,7 +6857,7 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="65">
@@ -6027,7 +6873,7 @@
         <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="G65" t="s">
         <v>46</v>
@@ -6036,49 +6882,35 @@
         <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="J65" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="K65" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="L65" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="M65" t="n">
-        <v>5</v>
-      </c>
-      <c r="N65" t="s">
-        <v>438</v>
-      </c>
-      <c r="O65" t="s">
-        <v>53</v>
-      </c>
-      <c r="P65" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q65" t="n">
-        <v>5</v>
-      </c>
-      <c r="R65" t="n">
-        <v>3</v>
-      </c>
-      <c r="S65" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
       <c r="T65" t="s"/>
-      <c r="U65" t="n">
-        <v>5</v>
-      </c>
+      <c r="U65" t="s"/>
       <c r="V65" t="n">
         <v>0</v>
       </c>
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
     </row>
     <row r="66">
@@ -6094,7 +6926,7 @@
         <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="G66" t="s">
         <v>46</v>
@@ -6103,41 +6935,37 @@
         <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J66" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="K66" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="L66" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="M66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="O66" t="s">
-        <v>65</v>
-      </c>
-      <c r="P66" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P66" t="s"/>
       <c r="Q66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R66" t="n">
         <v>4</v>
       </c>
-      <c r="S66" t="n">
-        <v>5</v>
-      </c>
+      <c r="S66" t="s"/>
       <c r="T66" t="s"/>
       <c r="U66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V66" t="n">
         <v>0</v>
@@ -6145,7 +6973,7 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
     </row>
     <row r="67">
@@ -6161,7 +6989,7 @@
         <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="G67" t="s">
         <v>46</v>
@@ -6170,37 +6998,41 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="J67" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="K67" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="L67" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="M67" t="n">
-        <v>3</v>
-      </c>
-      <c r="N67" t="s"/>
-      <c r="O67" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>443</v>
+      </c>
+      <c r="O67" t="s">
+        <v>100</v>
+      </c>
       <c r="P67" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T67" t="s"/>
       <c r="U67" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V67" t="n">
         <v>0</v>
@@ -6208,7 +7040,7 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="68">
@@ -6224,7 +7056,7 @@
         <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G68" t="s">
         <v>46</v>
@@ -6233,41 +7065,41 @@
         <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="J68" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="K68" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="L68" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="M68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N68" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="O68" t="s">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="P68" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
@@ -6275,7 +7107,7 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
     </row>
     <row r="69">
@@ -6291,7 +7123,7 @@
         <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="G69" t="s">
         <v>46</v>
@@ -6300,35 +7132,31 @@
         <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="J69" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="K69" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="L69" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
       </c>
       <c r="N69" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="O69" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="P69" t="n">
         <v>5</v>
       </c>
-      <c r="Q69" t="n">
-        <v>5</v>
-      </c>
-      <c r="R69" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q69" t="s"/>
+      <c r="R69" t="s"/>
       <c r="S69" t="n">
         <v>5</v>
       </c>
@@ -6342,7 +7170,7 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="70">
@@ -6358,7 +7186,7 @@
         <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="G70" t="s">
         <v>46</v>
@@ -6367,38 +7195,32 @@
         <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="J70" t="s">
-        <v>467</v>
+        <v>456</v>
       </c>
       <c r="K70" t="s">
-        <v>468</v>
+        <v>457</v>
       </c>
       <c r="L70" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="M70" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
-      </c>
-      <c r="P70" t="n">
-        <v>5</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="P70" t="s"/>
       <c r="Q70" t="n">
         <v>4</v>
       </c>
-      <c r="R70" t="n">
-        <v>3</v>
-      </c>
-      <c r="S70" t="n">
-        <v>4</v>
-      </c>
+      <c r="R70" t="s"/>
+      <c r="S70" t="s"/>
       <c r="T70" t="s"/>
       <c r="U70" t="n">
         <v>4</v>
@@ -6409,7 +7231,3260 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>461</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>462</v>
+      </c>
+      <c r="J71" t="s">
+        <v>463</v>
+      </c>
+      <c r="K71" t="s">
+        <v>464</v>
+      </c>
+      <c r="L71" t="s">
+        <v>465</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>466</v>
+      </c>
+      <c r="O71" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>467</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>468</v>
+      </c>
+      <c r="J72" t="s">
         <v>469</v>
+      </c>
+      <c r="K72" t="s">
+        <v>470</v>
+      </c>
+      <c r="L72" t="s">
+        <v>471</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>466</v>
+      </c>
+      <c r="O72" t="s">
+        <v>100</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>473</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>474</v>
+      </c>
+      <c r="J73" t="s">
+        <v>475</v>
+      </c>
+      <c r="K73" t="s">
+        <v>476</v>
+      </c>
+      <c r="L73" t="s">
+        <v>477</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>478</v>
+      </c>
+      <c r="O73" t="s">
+        <v>76</v>
+      </c>
+      <c r="P73" t="s"/>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>480</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>481</v>
+      </c>
+      <c r="J74" t="s">
+        <v>482</v>
+      </c>
+      <c r="K74" t="s">
+        <v>483</v>
+      </c>
+      <c r="L74" t="s">
+        <v>484</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>478</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>485</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>486</v>
+      </c>
+      <c r="J75" t="s">
+        <v>487</v>
+      </c>
+      <c r="K75" t="s">
+        <v>488</v>
+      </c>
+      <c r="L75" t="s">
+        <v>489</v>
+      </c>
+      <c r="M75" t="n">
+        <v>3</v>
+      </c>
+      <c r="N75" t="s">
+        <v>490</v>
+      </c>
+      <c r="O75" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>3</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>492</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>493</v>
+      </c>
+      <c r="J76" t="s">
+        <v>494</v>
+      </c>
+      <c r="K76" t="s">
+        <v>495</v>
+      </c>
+      <c r="L76" t="s">
+        <v>496</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>497</v>
+      </c>
+      <c r="O76" t="s">
+        <v>107</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>498</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>499</v>
+      </c>
+      <c r="J77" t="s">
+        <v>500</v>
+      </c>
+      <c r="K77" t="s">
+        <v>501</v>
+      </c>
+      <c r="L77" t="s">
+        <v>502</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>497</v>
+      </c>
+      <c r="O77" t="s">
+        <v>217</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>504</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>505</v>
+      </c>
+      <c r="J78" t="s">
+        <v>506</v>
+      </c>
+      <c r="K78" t="s">
+        <v>507</v>
+      </c>
+      <c r="L78" t="s">
+        <v>508</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>509</v>
+      </c>
+      <c r="O78" t="s">
+        <v>107</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>510</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>511</v>
+      </c>
+      <c r="J79" t="s">
+        <v>512</v>
+      </c>
+      <c r="K79" t="s">
+        <v>513</v>
+      </c>
+      <c r="L79" t="s">
+        <v>514</v>
+      </c>
+      <c r="M79" t="n">
+        <v>3</v>
+      </c>
+      <c r="N79" t="s">
+        <v>509</v>
+      </c>
+      <c r="O79" t="s">
+        <v>100</v>
+      </c>
+      <c r="P79" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>3</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>515</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>516</v>
+      </c>
+      <c r="J80" t="s">
+        <v>512</v>
+      </c>
+      <c r="K80" t="s">
+        <v>517</v>
+      </c>
+      <c r="L80" t="s">
+        <v>518</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>509</v>
+      </c>
+      <c r="O80" t="s">
+        <v>217</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>519</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>520</v>
+      </c>
+      <c r="J81" t="s">
+        <v>521</v>
+      </c>
+      <c r="K81" t="s">
+        <v>522</v>
+      </c>
+      <c r="L81" t="s">
+        <v>523</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>437</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>525</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>526</v>
+      </c>
+      <c r="J82" t="s">
+        <v>527</v>
+      </c>
+      <c r="K82" t="s">
+        <v>528</v>
+      </c>
+      <c r="L82" t="s">
+        <v>529</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>437</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>530</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>531</v>
+      </c>
+      <c r="J83" t="s">
+        <v>532</v>
+      </c>
+      <c r="K83" t="s">
+        <v>533</v>
+      </c>
+      <c r="L83" t="s">
+        <v>534</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>437</v>
+      </c>
+      <c r="O83" t="s">
+        <v>100</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>4</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>535</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>536</v>
+      </c>
+      <c r="J84" t="s">
+        <v>537</v>
+      </c>
+      <c r="K84" t="s">
+        <v>538</v>
+      </c>
+      <c r="L84" t="s">
+        <v>539</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>437</v>
+      </c>
+      <c r="O84" t="s">
+        <v>100</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>3</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>3</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>541</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>542</v>
+      </c>
+      <c r="J85" t="s">
+        <v>543</v>
+      </c>
+      <c r="K85" t="s">
+        <v>544</v>
+      </c>
+      <c r="L85" t="s">
+        <v>545</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>546</v>
+      </c>
+      <c r="O85" t="s">
+        <v>76</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>547</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>548</v>
+      </c>
+      <c r="J86" t="s">
+        <v>549</v>
+      </c>
+      <c r="K86" t="s">
+        <v>550</v>
+      </c>
+      <c r="L86" t="s">
+        <v>551</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>553</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>554</v>
+      </c>
+      <c r="J87" t="s">
+        <v>555</v>
+      </c>
+      <c r="K87" t="s">
+        <v>556</v>
+      </c>
+      <c r="L87" t="s">
+        <v>557</v>
+      </c>
+      <c r="M87" t="n">
+        <v>3</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>3</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>1</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>558</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>559</v>
+      </c>
+      <c r="J88" t="s">
+        <v>560</v>
+      </c>
+      <c r="K88" t="s">
+        <v>561</v>
+      </c>
+      <c r="L88" t="s">
+        <v>562</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>563</v>
+      </c>
+      <c r="O88" t="s">
+        <v>217</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>565</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>566</v>
+      </c>
+      <c r="J89" t="s">
+        <v>567</v>
+      </c>
+      <c r="K89" t="s">
+        <v>568</v>
+      </c>
+      <c r="L89" t="s">
+        <v>569</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>563</v>
+      </c>
+      <c r="O89" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>4</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>571</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>572</v>
+      </c>
+      <c r="J90" t="s">
+        <v>573</v>
+      </c>
+      <c r="K90" t="s">
+        <v>574</v>
+      </c>
+      <c r="L90" t="s">
+        <v>575</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>576</v>
+      </c>
+      <c r="O90" t="s">
+        <v>217</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>577</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>578</v>
+      </c>
+      <c r="J91" t="s">
+        <v>579</v>
+      </c>
+      <c r="K91" t="s">
+        <v>580</v>
+      </c>
+      <c r="L91" t="s">
+        <v>581</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s"/>
+      <c r="O91" t="s"/>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>582</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>583</v>
+      </c>
+      <c r="J92" t="s">
+        <v>584</v>
+      </c>
+      <c r="K92" t="s">
+        <v>585</v>
+      </c>
+      <c r="L92" t="s">
+        <v>586</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>587</v>
+      </c>
+      <c r="O92" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>588</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>589</v>
+      </c>
+      <c r="J93" t="s">
+        <v>590</v>
+      </c>
+      <c r="K93" t="s">
+        <v>591</v>
+      </c>
+      <c r="L93" t="s">
+        <v>592</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>593</v>
+      </c>
+      <c r="O93" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>595</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>596</v>
+      </c>
+      <c r="J94" t="s">
+        <v>597</v>
+      </c>
+      <c r="K94" t="s">
+        <v>208</v>
+      </c>
+      <c r="L94" t="s">
+        <v>598</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>593</v>
+      </c>
+      <c r="O94" t="s">
+        <v>100</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>599</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>600</v>
+      </c>
+      <c r="J95" t="s">
+        <v>601</v>
+      </c>
+      <c r="K95" t="s">
+        <v>602</v>
+      </c>
+      <c r="L95" t="s">
+        <v>603</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>604</v>
+      </c>
+      <c r="O95" t="s">
+        <v>76</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>605</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>606</v>
+      </c>
+      <c r="J96" t="s">
+        <v>607</v>
+      </c>
+      <c r="K96" t="s">
+        <v>608</v>
+      </c>
+      <c r="L96" t="s">
+        <v>609</v>
+      </c>
+      <c r="M96" t="n">
+        <v>5</v>
+      </c>
+      <c r="N96" t="s">
+        <v>604</v>
+      </c>
+      <c r="O96" t="s">
+        <v>100</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>5</v>
+      </c>
+      <c r="R96" t="n">
+        <v>4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>5</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>5</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>610</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>611</v>
+      </c>
+      <c r="J97" t="s">
+        <v>612</v>
+      </c>
+      <c r="K97" t="s">
+        <v>613</v>
+      </c>
+      <c r="L97" t="s">
+        <v>614</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>615</v>
+      </c>
+      <c r="O97" t="s">
+        <v>217</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>3</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>616</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>617</v>
+      </c>
+      <c r="J98" t="s">
+        <v>618</v>
+      </c>
+      <c r="K98" t="s">
+        <v>619</v>
+      </c>
+      <c r="L98" t="s">
+        <v>620</v>
+      </c>
+      <c r="M98" t="n">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>621</v>
+      </c>
+      <c r="O98" t="s">
+        <v>53</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>5</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>623</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>624</v>
+      </c>
+      <c r="J99" t="s">
+        <v>618</v>
+      </c>
+      <c r="K99" t="s">
+        <v>625</v>
+      </c>
+      <c r="L99" t="s">
+        <v>626</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>627</v>
+      </c>
+      <c r="O99" t="s">
+        <v>217</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>628</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>629</v>
+      </c>
+      <c r="J100" t="s">
+        <v>630</v>
+      </c>
+      <c r="K100" t="s">
+        <v>631</v>
+      </c>
+      <c r="L100" t="s">
+        <v>632</v>
+      </c>
+      <c r="M100" t="n">
+        <v>5</v>
+      </c>
+      <c r="N100" t="s">
+        <v>627</v>
+      </c>
+      <c r="O100" t="s">
+        <v>53</v>
+      </c>
+      <c r="P100" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>5</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>633</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>634</v>
+      </c>
+      <c r="J101" t="s">
+        <v>635</v>
+      </c>
+      <c r="K101" t="s">
+        <v>636</v>
+      </c>
+      <c r="L101" t="s">
+        <v>637</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>627</v>
+      </c>
+      <c r="O101" t="s">
+        <v>76</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>3</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>639</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>640</v>
+      </c>
+      <c r="J102" t="s">
+        <v>641</v>
+      </c>
+      <c r="K102" t="s">
+        <v>157</v>
+      </c>
+      <c r="L102" t="s">
+        <v>642</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>627</v>
+      </c>
+      <c r="O102" t="s">
+        <v>76</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>5</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>643</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>644</v>
+      </c>
+      <c r="J103" t="s">
+        <v>645</v>
+      </c>
+      <c r="K103" t="s">
+        <v>646</v>
+      </c>
+      <c r="L103" t="s">
+        <v>647</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="s">
+        <v>627</v>
+      </c>
+      <c r="O103" t="s">
+        <v>100</v>
+      </c>
+      <c r="P103" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>4</v>
+      </c>
+      <c r="R103" t="n">
+        <v>5</v>
+      </c>
+      <c r="S103" t="n">
+        <v>5</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>648</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>649</v>
+      </c>
+      <c r="J104" t="s">
+        <v>650</v>
+      </c>
+      <c r="K104" t="s">
+        <v>651</v>
+      </c>
+      <c r="L104" t="s">
+        <v>652</v>
+      </c>
+      <c r="M104" t="n">
+        <v>4</v>
+      </c>
+      <c r="N104" t="s">
+        <v>621</v>
+      </c>
+      <c r="O104" t="s">
+        <v>100</v>
+      </c>
+      <c r="P104" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>4</v>
+      </c>
+      <c r="R104" t="n">
+        <v>4</v>
+      </c>
+      <c r="S104" t="n">
+        <v>5</v>
+      </c>
+      <c r="T104" t="s"/>
+      <c r="U104" t="n">
+        <v>4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>653</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>654</v>
+      </c>
+      <c r="J105" t="s">
+        <v>655</v>
+      </c>
+      <c r="K105" t="s">
+        <v>656</v>
+      </c>
+      <c r="L105" t="s">
+        <v>657</v>
+      </c>
+      <c r="M105" t="n">
+        <v>4</v>
+      </c>
+      <c r="N105" t="s">
+        <v>621</v>
+      </c>
+      <c r="O105" t="s">
+        <v>53</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>5</v>
+      </c>
+      <c r="R105" t="n">
+        <v>5</v>
+      </c>
+      <c r="S105" t="n">
+        <v>5</v>
+      </c>
+      <c r="T105" t="s"/>
+      <c r="U105" t="n">
+        <v>4</v>
+      </c>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B106" t="s"/>
+      <c r="C106" t="s"/>
+      <c r="D106" t="n">
+        <v>105</v>
+      </c>
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+      <c r="F106" t="s">
+        <v>658</v>
+      </c>
+      <c r="G106" t="s">
+        <v>46</v>
+      </c>
+      <c r="H106" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" t="s">
+        <v>659</v>
+      </c>
+      <c r="J106" t="s">
+        <v>660</v>
+      </c>
+      <c r="K106" t="s">
+        <v>661</v>
+      </c>
+      <c r="L106" t="s">
+        <v>662</v>
+      </c>
+      <c r="M106" t="n">
+        <v>4</v>
+      </c>
+      <c r="N106" t="s">
+        <v>621</v>
+      </c>
+      <c r="O106" t="s">
+        <v>100</v>
+      </c>
+      <c r="P106" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>4</v>
+      </c>
+      <c r="R106" t="n">
+        <v>4</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4</v>
+      </c>
+      <c r="T106" t="s"/>
+      <c r="U106" t="n">
+        <v>4</v>
+      </c>
+      <c r="V106" t="n">
+        <v>0</v>
+      </c>
+      <c r="W106" t="s"/>
+      <c r="X106" t="s"/>
+      <c r="Y106" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B107" t="s"/>
+      <c r="C107" t="s"/>
+      <c r="D107" t="n">
+        <v>106</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>664</v>
+      </c>
+      <c r="G107" t="s">
+        <v>46</v>
+      </c>
+      <c r="H107" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" t="s">
+        <v>665</v>
+      </c>
+      <c r="J107" t="s">
+        <v>666</v>
+      </c>
+      <c r="K107" t="s">
+        <v>667</v>
+      </c>
+      <c r="L107" t="s">
+        <v>668</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="s">
+        <v>621</v>
+      </c>
+      <c r="O107" t="s">
+        <v>107</v>
+      </c>
+      <c r="P107" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>4</v>
+      </c>
+      <c r="R107" t="n">
+        <v>5</v>
+      </c>
+      <c r="S107" t="n">
+        <v>4</v>
+      </c>
+      <c r="T107" t="s"/>
+      <c r="U107" t="n">
+        <v>2</v>
+      </c>
+      <c r="V107" t="n">
+        <v>0</v>
+      </c>
+      <c r="W107" t="s"/>
+      <c r="X107" t="s"/>
+      <c r="Y107" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B108" t="s"/>
+      <c r="C108" t="s"/>
+      <c r="D108" t="n">
+        <v>107</v>
+      </c>
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+      <c r="F108" t="s">
+        <v>669</v>
+      </c>
+      <c r="G108" t="s">
+        <v>46</v>
+      </c>
+      <c r="H108" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" t="s">
+        <v>670</v>
+      </c>
+      <c r="J108" t="s">
+        <v>671</v>
+      </c>
+      <c r="K108" t="s">
+        <v>672</v>
+      </c>
+      <c r="L108" t="s">
+        <v>673</v>
+      </c>
+      <c r="M108" t="n">
+        <v>4</v>
+      </c>
+      <c r="N108" t="s">
+        <v>674</v>
+      </c>
+      <c r="O108" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>4</v>
+      </c>
+      <c r="S108" t="n">
+        <v>4</v>
+      </c>
+      <c r="T108" t="s"/>
+      <c r="U108" t="n">
+        <v>4</v>
+      </c>
+      <c r="V108" t="n">
+        <v>0</v>
+      </c>
+      <c r="W108" t="s"/>
+      <c r="X108" t="s"/>
+      <c r="Y108" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B109" t="s"/>
+      <c r="C109" t="s"/>
+      <c r="D109" t="n">
+        <v>108</v>
+      </c>
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+      <c r="F109" t="s">
+        <v>676</v>
+      </c>
+      <c r="G109" t="s">
+        <v>46</v>
+      </c>
+      <c r="H109" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" t="s">
+        <v>677</v>
+      </c>
+      <c r="J109" t="s">
+        <v>678</v>
+      </c>
+      <c r="K109" t="s">
+        <v>679</v>
+      </c>
+      <c r="L109" t="s">
+        <v>680</v>
+      </c>
+      <c r="M109" t="n">
+        <v>4</v>
+      </c>
+      <c r="N109" t="s">
+        <v>681</v>
+      </c>
+      <c r="O109" t="s">
+        <v>53</v>
+      </c>
+      <c r="P109" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>4</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>4</v>
+      </c>
+      <c r="T109" t="s"/>
+      <c r="U109" t="n">
+        <v>3</v>
+      </c>
+      <c r="V109" t="n">
+        <v>0</v>
+      </c>
+      <c r="W109" t="s"/>
+      <c r="X109" t="s"/>
+      <c r="Y109" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B110" t="s"/>
+      <c r="C110" t="s"/>
+      <c r="D110" t="n">
+        <v>109</v>
+      </c>
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+      <c r="F110" t="s">
+        <v>683</v>
+      </c>
+      <c r="G110" t="s">
+        <v>46</v>
+      </c>
+      <c r="H110" t="s">
+        <v>47</v>
+      </c>
+      <c r="I110" t="s">
+        <v>684</v>
+      </c>
+      <c r="J110" t="s">
+        <v>685</v>
+      </c>
+      <c r="K110" t="s">
+        <v>686</v>
+      </c>
+      <c r="L110" t="s">
+        <v>687</v>
+      </c>
+      <c r="M110" t="n">
+        <v>5</v>
+      </c>
+      <c r="N110" t="s">
+        <v>688</v>
+      </c>
+      <c r="O110" t="s">
+        <v>53</v>
+      </c>
+      <c r="P110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>5</v>
+      </c>
+      <c r="R110" t="n">
+        <v>3</v>
+      </c>
+      <c r="S110" t="n">
+        <v>4</v>
+      </c>
+      <c r="T110" t="s"/>
+      <c r="U110" t="n">
+        <v>5</v>
+      </c>
+      <c r="V110" t="n">
+        <v>0</v>
+      </c>
+      <c r="W110" t="s"/>
+      <c r="X110" t="s"/>
+      <c r="Y110" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B111" t="s"/>
+      <c r="C111" t="s"/>
+      <c r="D111" t="n">
+        <v>110</v>
+      </c>
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+      <c r="F111" t="s">
+        <v>689</v>
+      </c>
+      <c r="G111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" t="s">
+        <v>47</v>
+      </c>
+      <c r="I111" t="s">
+        <v>690</v>
+      </c>
+      <c r="J111" t="s">
+        <v>691</v>
+      </c>
+      <c r="K111" t="s">
+        <v>692</v>
+      </c>
+      <c r="L111" t="s">
+        <v>693</v>
+      </c>
+      <c r="M111" t="n">
+        <v>4</v>
+      </c>
+      <c r="N111" t="s">
+        <v>681</v>
+      </c>
+      <c r="O111" t="s">
+        <v>76</v>
+      </c>
+      <c r="P111" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>5</v>
+      </c>
+      <c r="R111" t="n">
+        <v>4</v>
+      </c>
+      <c r="S111" t="n">
+        <v>5</v>
+      </c>
+      <c r="T111" t="s"/>
+      <c r="U111" t="n">
+        <v>4</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0</v>
+      </c>
+      <c r="W111" t="s"/>
+      <c r="X111" t="s"/>
+      <c r="Y111" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B112" t="s"/>
+      <c r="C112" t="s"/>
+      <c r="D112" t="n">
+        <v>111</v>
+      </c>
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+      <c r="F112" t="s">
+        <v>695</v>
+      </c>
+      <c r="G112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" t="s">
+        <v>47</v>
+      </c>
+      <c r="I112" t="s">
+        <v>696</v>
+      </c>
+      <c r="J112" t="s">
+        <v>697</v>
+      </c>
+      <c r="K112" t="s">
+        <v>698</v>
+      </c>
+      <c r="L112" t="s">
+        <v>699</v>
+      </c>
+      <c r="M112" t="n">
+        <v>3</v>
+      </c>
+      <c r="N112" t="s"/>
+      <c r="O112" t="s"/>
+      <c r="P112" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>1</v>
+      </c>
+      <c r="R112" t="n">
+        <v>3</v>
+      </c>
+      <c r="S112" t="n">
+        <v>1</v>
+      </c>
+      <c r="T112" t="s"/>
+      <c r="U112" t="n">
+        <v>1</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0</v>
+      </c>
+      <c r="W112" t="s"/>
+      <c r="X112" t="s"/>
+      <c r="Y112" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B113" t="s"/>
+      <c r="C113" t="s"/>
+      <c r="D113" t="n">
+        <v>112</v>
+      </c>
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+      <c r="F113" t="s">
+        <v>701</v>
+      </c>
+      <c r="G113" t="s">
+        <v>46</v>
+      </c>
+      <c r="H113" t="s">
+        <v>47</v>
+      </c>
+      <c r="I113" t="s">
+        <v>702</v>
+      </c>
+      <c r="J113" t="s">
+        <v>703</v>
+      </c>
+      <c r="K113" t="s">
+        <v>704</v>
+      </c>
+      <c r="L113" t="s">
+        <v>705</v>
+      </c>
+      <c r="M113" t="n">
+        <v>5</v>
+      </c>
+      <c r="N113" t="s">
+        <v>706</v>
+      </c>
+      <c r="O113" t="s">
+        <v>100</v>
+      </c>
+      <c r="P113" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>5</v>
+      </c>
+      <c r="R113" t="n">
+        <v>5</v>
+      </c>
+      <c r="S113" t="n">
+        <v>5</v>
+      </c>
+      <c r="T113" t="s"/>
+      <c r="U113" t="n">
+        <v>5</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0</v>
+      </c>
+      <c r="W113" t="s"/>
+      <c r="X113" t="s"/>
+      <c r="Y113" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B114" t="s"/>
+      <c r="C114" t="s"/>
+      <c r="D114" t="n">
+        <v>113</v>
+      </c>
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+      <c r="F114" t="s">
+        <v>707</v>
+      </c>
+      <c r="G114" t="s">
+        <v>46</v>
+      </c>
+      <c r="H114" t="s">
+        <v>47</v>
+      </c>
+      <c r="I114" t="s">
+        <v>708</v>
+      </c>
+      <c r="J114" t="s">
+        <v>709</v>
+      </c>
+      <c r="K114" t="s">
+        <v>710</v>
+      </c>
+      <c r="L114" t="s">
+        <v>711</v>
+      </c>
+      <c r="M114" t="n">
+        <v>2</v>
+      </c>
+      <c r="N114" t="s">
+        <v>712</v>
+      </c>
+      <c r="O114" t="s">
+        <v>100</v>
+      </c>
+      <c r="P114" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>5</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2</v>
+      </c>
+      <c r="S114" t="n">
+        <v>4</v>
+      </c>
+      <c r="T114" t="s"/>
+      <c r="U114" t="n">
+        <v>4</v>
+      </c>
+      <c r="V114" t="n">
+        <v>0</v>
+      </c>
+      <c r="W114" t="s"/>
+      <c r="X114" t="s"/>
+      <c r="Y114" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B115" t="s"/>
+      <c r="C115" t="s"/>
+      <c r="D115" t="n">
+        <v>114</v>
+      </c>
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+      <c r="F115" t="s">
+        <v>714</v>
+      </c>
+      <c r="G115" t="s">
+        <v>46</v>
+      </c>
+      <c r="H115" t="s">
+        <v>47</v>
+      </c>
+      <c r="I115" t="s">
+        <v>715</v>
+      </c>
+      <c r="J115" t="s">
+        <v>716</v>
+      </c>
+      <c r="K115" t="s">
+        <v>717</v>
+      </c>
+      <c r="L115" t="s">
+        <v>718</v>
+      </c>
+      <c r="M115" t="n">
+        <v>2</v>
+      </c>
+      <c r="N115" t="s">
+        <v>719</v>
+      </c>
+      <c r="O115" t="s">
+        <v>53</v>
+      </c>
+      <c r="P115" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>4</v>
+      </c>
+      <c r="R115" t="n">
+        <v>4</v>
+      </c>
+      <c r="S115" t="n">
+        <v>4</v>
+      </c>
+      <c r="T115" t="s"/>
+      <c r="U115" t="n">
+        <v>1</v>
+      </c>
+      <c r="V115" t="n">
+        <v>0</v>
+      </c>
+      <c r="W115" t="s"/>
+      <c r="X115" t="s"/>
+      <c r="Y115" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B116" t="s"/>
+      <c r="C116" t="s"/>
+      <c r="D116" t="n">
+        <v>115</v>
+      </c>
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+      <c r="F116" t="s">
+        <v>721</v>
+      </c>
+      <c r="G116" t="s">
+        <v>46</v>
+      </c>
+      <c r="H116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I116" t="s">
+        <v>722</v>
+      </c>
+      <c r="J116" t="s">
+        <v>723</v>
+      </c>
+      <c r="K116" t="s">
+        <v>724</v>
+      </c>
+      <c r="L116" t="s">
+        <v>725</v>
+      </c>
+      <c r="M116" t="n">
+        <v>5</v>
+      </c>
+      <c r="N116" t="s">
+        <v>726</v>
+      </c>
+      <c r="O116" t="s">
+        <v>76</v>
+      </c>
+      <c r="P116" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>5</v>
+      </c>
+      <c r="R116" t="n">
+        <v>5</v>
+      </c>
+      <c r="S116" t="n">
+        <v>5</v>
+      </c>
+      <c r="T116" t="s"/>
+      <c r="U116" t="n">
+        <v>5</v>
+      </c>
+      <c r="V116" t="n">
+        <v>0</v>
+      </c>
+      <c r="W116" t="s"/>
+      <c r="X116" t="s"/>
+      <c r="Y116" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B117" t="s"/>
+      <c r="C117" t="s"/>
+      <c r="D117" t="n">
+        <v>116</v>
+      </c>
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+      <c r="F117" t="s">
+        <v>727</v>
+      </c>
+      <c r="G117" t="s">
+        <v>46</v>
+      </c>
+      <c r="H117" t="s">
+        <v>47</v>
+      </c>
+      <c r="I117" t="s">
+        <v>728</v>
+      </c>
+      <c r="J117" t="s">
+        <v>729</v>
+      </c>
+      <c r="K117" t="s">
+        <v>730</v>
+      </c>
+      <c r="L117" t="s">
+        <v>731</v>
+      </c>
+      <c r="M117" t="n">
+        <v>5</v>
+      </c>
+      <c r="N117" t="s">
+        <v>732</v>
+      </c>
+      <c r="O117" t="s">
+        <v>53</v>
+      </c>
+      <c r="P117" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>4</v>
+      </c>
+      <c r="R117" t="n">
+        <v>3</v>
+      </c>
+      <c r="S117" t="n">
+        <v>4</v>
+      </c>
+      <c r="T117" t="s"/>
+      <c r="U117" t="n">
+        <v>4</v>
+      </c>
+      <c r="V117" t="n">
+        <v>0</v>
+      </c>
+      <c r="W117" t="s"/>
+      <c r="X117" t="s"/>
+      <c r="Y117" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B118" t="s"/>
+      <c r="C118" t="s"/>
+      <c r="D118" t="n">
+        <v>117</v>
+      </c>
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+      <c r="F118" t="s">
+        <v>733</v>
+      </c>
+      <c r="G118" t="s">
+        <v>46</v>
+      </c>
+      <c r="H118" t="s">
+        <v>47</v>
+      </c>
+      <c r="I118" t="s">
+        <v>734</v>
+      </c>
+      <c r="J118" t="s">
+        <v>735</v>
+      </c>
+      <c r="K118" t="s">
+        <v>736</v>
+      </c>
+      <c r="L118" t="s">
+        <v>737</v>
+      </c>
+      <c r="M118" t="n">
+        <v>4</v>
+      </c>
+      <c r="N118" t="s">
+        <v>738</v>
+      </c>
+      <c r="O118" t="s">
+        <v>53</v>
+      </c>
+      <c r="P118" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>5</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2</v>
+      </c>
+      <c r="S118" t="n">
+        <v>5</v>
+      </c>
+      <c r="T118" t="s"/>
+      <c r="U118" t="n">
+        <v>3</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0</v>
+      </c>
+      <c r="W118" t="s"/>
+      <c r="X118" t="s"/>
+      <c r="Y118" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>58748</v>
+      </c>
+      <c r="B119" t="s"/>
+      <c r="C119" t="s"/>
+      <c r="D119" t="n">
+        <v>118</v>
+      </c>
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+      <c r="F119" t="s">
+        <v>740</v>
+      </c>
+      <c r="G119" t="s">
+        <v>46</v>
+      </c>
+      <c r="H119" t="s">
+        <v>47</v>
+      </c>
+      <c r="I119" t="s">
+        <v>741</v>
+      </c>
+      <c r="J119" t="s">
+        <v>742</v>
+      </c>
+      <c r="K119" t="s">
+        <v>743</v>
+      </c>
+      <c r="L119" t="s">
+        <v>744</v>
+      </c>
+      <c r="M119" t="n">
+        <v>4</v>
+      </c>
+      <c r="N119" t="s">
+        <v>745</v>
+      </c>
+      <c r="O119" t="s">
+        <v>76</v>
+      </c>
+      <c r="P119" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>5</v>
+      </c>
+      <c r="R119" t="n">
+        <v>5</v>
+      </c>
+      <c r="S119" t="n">
+        <v>5</v>
+      </c>
+      <c r="T119" t="s"/>
+      <c r="U119" t="n">
+        <v>4</v>
+      </c>
+      <c r="V119" t="n">
+        <v>0</v>
+      </c>
+      <c r="W119" t="s"/>
+      <c r="X119" t="s"/>
+      <c r="Y119" t="s">
+        <v>746</v>
       </c>
     </row>
   </sheetData>
